--- a/results/sensitivity.xlsx
+++ b/results/sensitivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEFCE60-68DF-4F3F-9AE8-DB53368253DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA0225-DD6B-4312-AFA2-3D6D338CF55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -255,9 +255,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -265,9 +262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -281,12 +275,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -306,9 +294,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +303,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,16 +424,16 @@
             <v>-</v>
           </cell>
           <cell r="F2">
-            <v>7.9068785104886519E-2</v>
+            <v>7.8032346469988148E-2</v>
           </cell>
           <cell r="G2">
-            <v>-4.7370260833802691E-2</v>
+            <v>-4.6749328459437113E-2</v>
           </cell>
           <cell r="H2">
-            <v>8.3252897024251107E-2</v>
+            <v>9.4685943910113618E-2</v>
           </cell>
           <cell r="I2">
-            <v>-4.987697031106595E-2</v>
+            <v>-5.672653063237286E-2</v>
           </cell>
           <cell r="J2" t="str">
             <v>-</v>
@@ -442,16 +448,16 @@
             <v>-</v>
           </cell>
           <cell r="N2">
-            <v>7.2320270538326112E-2</v>
+            <v>7.1388409664502162E-2</v>
           </cell>
           <cell r="O2">
-            <v>-4.332721281131658E-2</v>
+            <v>-4.276893317422209E-2</v>
           </cell>
           <cell r="P2">
-            <v>8.7894506879034745E-2</v>
+            <v>9.4678519171323638E-2</v>
           </cell>
           <cell r="Q2">
-            <v>-5.2657767679056167E-2</v>
+            <v>-5.6722082457121098E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -474,13 +480,13 @@
             <v>-</v>
           </cell>
           <cell r="G3">
-            <v>-0.22765804174876009</v>
+            <v>-0.2280834215829706</v>
           </cell>
           <cell r="H3" t="str">
             <v>-</v>
           </cell>
           <cell r="I3">
-            <v>-0.23970510589368851</v>
+            <v>-0.27676079266869119</v>
           </cell>
           <cell r="J3" t="str">
             <v>-</v>
@@ -498,13 +504,13 @@
             <v>-</v>
           </cell>
           <cell r="O3">
-            <v>-0.17894037549039651</v>
+            <v>-0.17923737645286669</v>
           </cell>
           <cell r="P3" t="str">
             <v>-</v>
           </cell>
           <cell r="Q3">
-            <v>-0.21747534885316461</v>
+            <v>-0.2377126687996354</v>
           </cell>
         </row>
         <row r="4">
@@ -577,16 +583,16 @@
             <v>-0.23221079556337351</v>
           </cell>
           <cell r="F5">
-            <v>7.9068785104886519E-2</v>
+            <v>7.8032346469988148E-2</v>
           </cell>
           <cell r="G5">
-            <v>-0.27502830258256278</v>
+            <v>-0.2748327500424077</v>
           </cell>
           <cell r="H5">
-            <v>8.3252897024251107E-2</v>
+            <v>9.4685943910113618E-2</v>
           </cell>
           <cell r="I5">
-            <v>-0.2895820762047544</v>
+            <v>-0.33348732330106412</v>
           </cell>
           <cell r="J5">
             <v>-4.2433227678745238E-2</v>
@@ -601,16 +607,16 @@
             <v>-0.18976173824355119</v>
           </cell>
           <cell r="N5">
-            <v>7.2320270538326112E-2</v>
+            <v>7.1388409664502162E-2</v>
           </cell>
           <cell r="O5">
-            <v>-0.22226758830171309</v>
+            <v>-0.22200630962708881</v>
           </cell>
           <cell r="P5">
-            <v>8.7894506879034745E-2</v>
+            <v>9.4678519171323638E-2</v>
           </cell>
           <cell r="Q5">
-            <v>-0.27013311653222072</v>
+            <v>-0.29443475125675661</v>
           </cell>
         </row>
       </sheetData>
@@ -655,10 +661,10 @@
             <v>-</v>
           </cell>
           <cell r="D2">
-            <v>-4.775709098785285E-2</v>
+            <v>8.3558174344123326E-2</v>
           </cell>
           <cell r="E2">
-            <v>3.1838060658568722E-2</v>
+            <v>-4.8206639044686507E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -675,7 +681,7 @@
             <v>-</v>
           </cell>
           <cell r="E3">
-            <v>-7.3901806894423813E-2</v>
+            <v>-7.459746319074996E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -689,10 +695,10 @@
             <v>-</v>
           </cell>
           <cell r="D4">
-            <v>2.731121589364093</v>
+            <v>2.7191773293535091</v>
           </cell>
           <cell r="E4">
-            <v>-0.34139019867051151</v>
+            <v>-0.33989716616918858</v>
           </cell>
         </row>
         <row r="5">
@@ -706,10 +712,10 @@
             <v>-</v>
           </cell>
           <cell r="D5">
-            <v>-9.9780970175366111E-3</v>
+            <v>0.15261974017817609</v>
           </cell>
           <cell r="E5">
-            <v>0.1511964925582977</v>
+            <v>-0.1044799191123106</v>
           </cell>
         </row>
         <row r="6">
@@ -717,13 +723,13 @@
             <v>surgery time</v>
           </cell>
           <cell r="B6">
-            <v>0.27710843373493999</v>
+            <v>0.27710843373493949</v>
           </cell>
           <cell r="C6">
-            <v>-0.39428571428571418</v>
+            <v>-0.39428571428571441</v>
           </cell>
           <cell r="D6">
-            <v>0.27710843373493982</v>
+            <v>0.27710843373493987</v>
           </cell>
           <cell r="E6">
             <v>-0.39428571428571407</v>
@@ -734,16 +740,16 @@
             <v>total</v>
           </cell>
           <cell r="B7">
-            <v>0.27710843373493999</v>
+            <v>0.27710843373493949</v>
           </cell>
           <cell r="C7">
-            <v>-0.39428571428571418</v>
+            <v>-0.39428571428571441</v>
           </cell>
           <cell r="D7">
-            <v>2.9504948350936431</v>
+            <v>3.232463677610748</v>
           </cell>
           <cell r="E7">
-            <v>-0.62654316663378296</v>
+            <v>-0.96146690180264982</v>
           </cell>
         </row>
       </sheetData>
@@ -788,10 +794,10 @@
             <v>-</v>
           </cell>
           <cell r="D2">
-            <v>1.6069396342335809E-2</v>
+            <v>4.22940090681269E-2</v>
           </cell>
           <cell r="E2">
-            <v>1.6069396342335809E-2</v>
+            <v>-2.4400389846996291E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -808,7 +814,7 @@
             <v>-</v>
           </cell>
           <cell r="E3">
-            <v>-3.7241910717973857E-2</v>
+            <v>-3.7699717034851379E-2</v>
           </cell>
         </row>
         <row r="4">
@@ -822,10 +828,10 @@
             <v>-</v>
           </cell>
           <cell r="D4">
-            <v>3.3602643152762832</v>
+            <v>3.352400276805815</v>
           </cell>
           <cell r="E4">
-            <v>-0.42003303940953551</v>
+            <v>-0.41905003460072671</v>
           </cell>
         </row>
         <row r="5">
@@ -839,10 +845,10 @@
             <v>-</v>
           </cell>
           <cell r="D5">
-            <v>-0.33826599291200721</v>
+            <v>0.40374243314620439</v>
           </cell>
           <cell r="E5">
-            <v>0.39883963125630351</v>
+            <v>-0.34217195165289338</v>
           </cell>
         </row>
         <row r="6">
@@ -850,16 +856,16 @@
             <v>surgery time</v>
           </cell>
           <cell r="B6">
-            <v>0.27710843373493982</v>
+            <v>0.27710843373493987</v>
           </cell>
           <cell r="C6">
+            <v>-0.39428571428571418</v>
+          </cell>
+          <cell r="D6">
+            <v>0.27710843373493987</v>
+          </cell>
+          <cell r="E6">
             <v>-0.39428571428571441</v>
-          </cell>
-          <cell r="D6">
-            <v>0.2771084337349396</v>
-          </cell>
-          <cell r="E6">
-            <v>-0.39428571428571429</v>
           </cell>
         </row>
         <row r="7">
@@ -867,16 +873,16 @@
             <v>total</v>
           </cell>
           <cell r="B7">
-            <v>0.27710843373493982</v>
+            <v>0.27710843373493987</v>
           </cell>
           <cell r="C7">
-            <v>-0.39428571428571441</v>
+            <v>-0.39428571428571418</v>
           </cell>
           <cell r="D7">
-            <v>3.3151761524415511</v>
+            <v>4.0755451527550859</v>
           </cell>
           <cell r="E7">
-            <v>-0.43665163681458441</v>
+            <v>-1.217607807421182</v>
           </cell>
         </row>
       </sheetData>
@@ -1091,7 +1097,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,19 +1209,19 @@
       </c>
       <c r="F2">
         <f>[1]case1_cut_off!F2</f>
-        <v>7.9068785104886519E-2</v>
+        <v>7.8032346469988148E-2</v>
       </c>
       <c r="G2">
         <f>[1]case1_cut_off!G2</f>
-        <v>-4.7370260833802691E-2</v>
+        <v>-4.6749328459437113E-2</v>
       </c>
       <c r="H2">
         <f>[1]case1_cut_off!H2</f>
-        <v>8.3252897024251107E-2</v>
+        <v>9.4685943910113618E-2</v>
       </c>
       <c r="I2">
         <f>[1]case1_cut_off!I2</f>
-        <v>-4.987697031106595E-2</v>
+        <v>-5.672653063237286E-2</v>
       </c>
       <c r="J2" t="str">
         <f>[1]case1_cut_off!J2</f>
@@ -1235,19 +1241,19 @@
       </c>
       <c r="N2">
         <f>[1]case1_cut_off!N2</f>
-        <v>7.2320270538326112E-2</v>
+        <v>7.1388409664502162E-2</v>
       </c>
       <c r="O2">
         <f>[1]case1_cut_off!O2</f>
-        <v>-4.332721281131658E-2</v>
+        <v>-4.276893317422209E-2</v>
       </c>
       <c r="P2">
         <f>[1]case1_cut_off!P2</f>
-        <v>8.7894506879034745E-2</v>
+        <v>9.4678519171323638E-2</v>
       </c>
       <c r="Q2">
         <f>[1]case1_cut_off!Q2</f>
-        <v>-5.2657767679056167E-2</v>
+        <v>-5.6722082457121098E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
       </c>
       <c r="G3">
         <f>[1]case1_cut_off!G3</f>
-        <v>-0.22765804174876009</v>
+        <v>-0.2280834215829706</v>
       </c>
       <c r="H3" t="str">
         <f>[1]case1_cut_off!H3</f>
@@ -1285,7 +1291,7 @@
       </c>
       <c r="I3">
         <f>[1]case1_cut_off!I3</f>
-        <v>-0.23970510589368851</v>
+        <v>-0.27676079266869119</v>
       </c>
       <c r="J3" t="str">
         <f>[1]case1_cut_off!J3</f>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="O3">
         <f>[1]case1_cut_off!O3</f>
-        <v>-0.17894037549039651</v>
+        <v>-0.17923737645286669</v>
       </c>
       <c r="P3" t="str">
         <f>[1]case1_cut_off!P3</f>
@@ -1317,7 +1323,7 @@
       </c>
       <c r="Q3">
         <f>[1]case1_cut_off!Q3</f>
-        <v>-0.21747534885316461</v>
+        <v>-0.2377126687996354</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1413,19 +1419,19 @@
       </c>
       <c r="F5">
         <f>[1]case1_cut_off!F5</f>
-        <v>7.9068785104886519E-2</v>
+        <v>7.8032346469988148E-2</v>
       </c>
       <c r="G5">
         <f>[1]case1_cut_off!G5</f>
-        <v>-0.27502830258256278</v>
+        <v>-0.2748327500424077</v>
       </c>
       <c r="H5">
         <f>[1]case1_cut_off!H5</f>
-        <v>8.3252897024251107E-2</v>
+        <v>9.4685943910113618E-2</v>
       </c>
       <c r="I5">
         <f>[1]case1_cut_off!I5</f>
-        <v>-0.2895820762047544</v>
+        <v>-0.33348732330106412</v>
       </c>
       <c r="J5">
         <f>[1]case1_cut_off!J5</f>
@@ -1445,19 +1451,19 @@
       </c>
       <c r="N5">
         <f>[1]case1_cut_off!N5</f>
-        <v>7.2320270538326112E-2</v>
+        <v>7.1388409664502162E-2</v>
       </c>
       <c r="O5">
         <f>[1]case1_cut_off!O5</f>
-        <v>-0.22226758830171309</v>
+        <v>-0.22200630962708881</v>
       </c>
       <c r="P5">
         <f>[1]case1_cut_off!P5</f>
-        <v>8.7894506879034745E-2</v>
+        <v>9.4678519171323638E-2</v>
       </c>
       <c r="Q5">
         <f>[1]case1_cut_off!Q5</f>
-        <v>-0.27013311653222072</v>
+        <v>-0.29443475125675661</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1556,19 +1562,19 @@
       </c>
       <c r="F8">
         <f>[1]case1_cut_off!F2</f>
-        <v>7.9068785104886519E-2</v>
+        <v>7.8032346469988148E-2</v>
       </c>
       <c r="G8">
         <f>[1]case1_cut_off!G2</f>
-        <v>-4.7370260833802691E-2</v>
+        <v>-4.6749328459437113E-2</v>
       </c>
       <c r="H8">
         <f>[1]case1_cut_off!H2</f>
-        <v>8.3252897024251107E-2</v>
+        <v>9.4685943910113618E-2</v>
       </c>
       <c r="I8">
         <f>[1]case1_cut_off!I2</f>
-        <v>-4.987697031106595E-2</v>
+        <v>-5.672653063237286E-2</v>
       </c>
       <c r="J8" t="str">
         <f>[1]case1_cut_off!J2</f>
@@ -1588,19 +1594,19 @@
       </c>
       <c r="N8">
         <f>[1]case1_cut_off!N2</f>
-        <v>7.2320270538326112E-2</v>
+        <v>7.1388409664502162E-2</v>
       </c>
       <c r="O8">
         <f>[1]case1_cut_off!O2</f>
-        <v>-4.332721281131658E-2</v>
+        <v>-4.276893317422209E-2</v>
       </c>
       <c r="P8">
         <f>[1]case1_cut_off!P2</f>
-        <v>8.7894506879034745E-2</v>
+        <v>9.4678519171323638E-2</v>
       </c>
       <c r="Q8">
         <f>[1]case1_cut_off!Q2</f>
-        <v>-5.2657767679056167E-2</v>
+        <v>-5.6722082457121098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1630,7 +1636,7 @@
       </c>
       <c r="G9">
         <f>[1]case1_cut_off!G3</f>
-        <v>-0.22765804174876009</v>
+        <v>-0.2280834215829706</v>
       </c>
       <c r="H9" t="str">
         <f>[1]case1_cut_off!H3</f>
@@ -1638,7 +1644,7 @@
       </c>
       <c r="I9">
         <f>[1]case1_cut_off!I3</f>
-        <v>-0.23970510589368851</v>
+        <v>-0.27676079266869119</v>
       </c>
       <c r="J9" t="str">
         <f>[1]case1_cut_off!J3</f>
@@ -1662,7 +1668,7 @@
       </c>
       <c r="O9">
         <f>[1]case1_cut_off!O3</f>
-        <v>-0.17894037549039651</v>
+        <v>-0.17923737645286669</v>
       </c>
       <c r="P9" t="str">
         <f>[1]case1_cut_off!P3</f>
@@ -1670,7 +1676,7 @@
       </c>
       <c r="Q9">
         <f>[1]case1_cut_off!Q3</f>
-        <v>-0.21747534885316461</v>
+        <v>-0.2377126687996354</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1766,19 +1772,19 @@
       </c>
       <c r="F11">
         <f>[1]case1_cut_off!F5</f>
-        <v>7.9068785104886519E-2</v>
+        <v>7.8032346469988148E-2</v>
       </c>
       <c r="G11">
         <f>[1]case1_cut_off!G5</f>
-        <v>-0.27502830258256278</v>
+        <v>-0.2748327500424077</v>
       </c>
       <c r="H11">
         <f>[1]case1_cut_off!H5</f>
-        <v>8.3252897024251107E-2</v>
+        <v>9.4685943910113618E-2</v>
       </c>
       <c r="I11">
         <f>[1]case1_cut_off!I5</f>
-        <v>-0.2895820762047544</v>
+        <v>-0.33348732330106412</v>
       </c>
       <c r="J11">
         <f>[1]case1_cut_off!J5</f>
@@ -1798,19 +1804,19 @@
       </c>
       <c r="N11">
         <f>[1]case1_cut_off!N5</f>
-        <v>7.2320270538326112E-2</v>
+        <v>7.1388409664502162E-2</v>
       </c>
       <c r="O11">
         <f>[1]case1_cut_off!O5</f>
-        <v>-0.22226758830171309</v>
+        <v>-0.22200630962708881</v>
       </c>
       <c r="P11">
         <f>[1]case1_cut_off!P5</f>
-        <v>8.7894506879034745E-2</v>
+        <v>9.4678519171323638E-2</v>
       </c>
       <c r="Q11">
         <f>[1]case1_cut_off!Q5</f>
-        <v>-0.27013311653222072</v>
+        <v>-0.29443475125675661</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1850,11 +1856,11 @@
       </c>
       <c r="D14">
         <f>[2]case2_cut_off!D2</f>
-        <v>-4.775709098785285E-2</v>
+        <v>8.3558174344123326E-2</v>
       </c>
       <c r="E14">
         <f>[2]case2_cut_off!E2</f>
-        <v>3.1838060658568722E-2</v>
+        <v>-4.8206639044686507E-2</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1876,7 +1882,7 @@
       </c>
       <c r="E15">
         <f>[2]case2_cut_off!E3</f>
-        <v>-7.3901806894423813E-2</v>
+        <v>-7.459746319074996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1894,11 +1900,11 @@
       </c>
       <c r="D16">
         <f>[2]case2_cut_off!D4</f>
-        <v>2.731121589364093</v>
+        <v>2.7191773293535091</v>
       </c>
       <c r="E16">
         <f>[2]case2_cut_off!E4</f>
-        <v>-0.34139019867051151</v>
+        <v>-0.33989716616918858</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1916,11 +1922,11 @@
       </c>
       <c r="D17">
         <f>[2]case2_cut_off!D5</f>
-        <v>-9.9780970175366111E-3</v>
+        <v>0.15261974017817609</v>
       </c>
       <c r="E17">
         <f>[2]case2_cut_off!E5</f>
-        <v>0.1511964925582977</v>
+        <v>-0.1044799191123106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1930,15 +1936,15 @@
       </c>
       <c r="B18">
         <f>[2]case2_cut_off!B6</f>
-        <v>0.27710843373493999</v>
+        <v>0.27710843373493949</v>
       </c>
       <c r="C18">
         <f>[2]case2_cut_off!C6</f>
-        <v>-0.39428571428571418</v>
+        <v>-0.39428571428571441</v>
       </c>
       <c r="D18">
         <f>[2]case2_cut_off!D6</f>
-        <v>0.27710843373493982</v>
+        <v>0.27710843373493987</v>
       </c>
       <c r="E18">
         <f>[2]case2_cut_off!E6</f>
@@ -1952,19 +1958,19 @@
       </c>
       <c r="B19">
         <f>[2]case2_cut_off!B7</f>
-        <v>0.27710843373493999</v>
+        <v>0.27710843373493949</v>
       </c>
       <c r="C19">
         <f>[2]case2_cut_off!C7</f>
-        <v>-0.39428571428571418</v>
+        <v>-0.39428571428571441</v>
       </c>
       <c r="D19">
         <f>[2]case2_cut_off!D7</f>
-        <v>2.9504948350936431</v>
+        <v>3.232463677610748</v>
       </c>
       <c r="E19">
         <f>[2]case2_cut_off!E7</f>
-        <v>-0.62654316663378296</v>
+        <v>-0.96146690180264982</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2004,11 +2010,11 @@
       </c>
       <c r="D22">
         <f>[3]case2_consq!D2</f>
-        <v>1.6069396342335809E-2</v>
+        <v>4.22940090681269E-2</v>
       </c>
       <c r="E22">
         <f>[3]case2_consq!E2</f>
-        <v>1.6069396342335809E-2</v>
+        <v>-2.4400389846996291E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2030,7 +2036,7 @@
       </c>
       <c r="E23">
         <f>[3]case2_consq!E3</f>
-        <v>-3.7241910717973857E-2</v>
+        <v>-3.7699717034851379E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2048,11 +2054,11 @@
       </c>
       <c r="D24">
         <f>[3]case2_consq!D4</f>
-        <v>3.3602643152762832</v>
+        <v>3.352400276805815</v>
       </c>
       <c r="E24">
         <f>[3]case2_consq!E4</f>
-        <v>-0.42003303940953551</v>
+        <v>-0.41905003460072671</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2070,11 +2076,11 @@
       </c>
       <c r="D25">
         <f>[3]case2_consq!D5</f>
-        <v>-0.33826599291200721</v>
+        <v>0.40374243314620439</v>
       </c>
       <c r="E25">
         <f>[3]case2_consq!E5</f>
-        <v>0.39883963125630351</v>
+        <v>-0.34217195165289338</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2084,19 +2090,19 @@
       </c>
       <c r="B26">
         <f>[3]case2_consq!B6</f>
-        <v>0.27710843373493982</v>
+        <v>0.27710843373493987</v>
       </c>
       <c r="C26">
         <f>[3]case2_consq!C6</f>
-        <v>-0.39428571428571441</v>
+        <v>-0.39428571428571418</v>
       </c>
       <c r="D26">
         <f>[3]case2_consq!D6</f>
-        <v>0.2771084337349396</v>
+        <v>0.27710843373493987</v>
       </c>
       <c r="E26">
         <f>[3]case2_consq!E6</f>
-        <v>-0.39428571428571429</v>
+        <v>-0.39428571428571441</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2106,19 +2112,19 @@
       </c>
       <c r="B27">
         <f>[3]case2_consq!B7</f>
-        <v>0.27710843373493982</v>
+        <v>0.27710843373493987</v>
       </c>
       <c r="C27">
         <f>[3]case2_consq!C7</f>
-        <v>-0.39428571428571441</v>
+        <v>-0.39428571428571418</v>
       </c>
       <c r="D27">
         <f>[3]case2_consq!D7</f>
-        <v>3.3151761524415511</v>
+        <v>4.0755451527550859</v>
       </c>
       <c r="E27">
         <f>[3]case2_consq!E7</f>
-        <v>-0.43665163681458441</v>
+        <v>-1.217607807421182</v>
       </c>
     </row>
   </sheetData>
@@ -2130,71 +2136,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942EC9EF-88F1-453D-B701-3C676B19E3B2}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="L1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="25"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="25"/>
+      <c r="S2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2252,214 +2258,214 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="29" t="str">
         <f>Data!B2</f>
         <v>-</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="29" t="str">
         <f>Data!C2</f>
         <v>-</v>
       </c>
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="29" t="str">
         <f>Data!D2</f>
         <v>-</v>
       </c>
-      <c r="E4" s="18" t="str">
+      <c r="E4" s="29" t="str">
         <f>Data!E2</f>
         <v>-</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="29">
         <f>Data!F2</f>
-        <v>7.9068785104886519E-2</v>
-      </c>
-      <c r="G4" s="18">
+        <v>7.8032346469988148E-2</v>
+      </c>
+      <c r="G4" s="29">
         <f>Data!G2</f>
-        <v>-4.7370260833802691E-2</v>
-      </c>
-      <c r="H4" s="18">
+        <v>-4.6749328459437113E-2</v>
+      </c>
+      <c r="H4" s="29">
         <f>Data!H2</f>
-        <v>8.3252897024251107E-2</v>
-      </c>
-      <c r="I4" s="18">
+        <v>9.4685943910113618E-2</v>
+      </c>
+      <c r="I4" s="29">
         <f>Data!I2</f>
-        <v>-4.987697031106595E-2</v>
+        <v>-5.672653063237286E-2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="18" t="str">
+      <c r="M4" s="14" t="str">
         <f>Data!B8</f>
         <v>-</v>
       </c>
-      <c r="N4" s="18" t="str">
+      <c r="N4" s="14" t="str">
         <f>Data!C8</f>
         <v>-</v>
       </c>
-      <c r="O4" s="18" t="str">
+      <c r="O4" s="14" t="str">
         <f>Data!D8</f>
         <v>-</v>
       </c>
-      <c r="P4" s="18" t="str">
+      <c r="P4" s="14" t="str">
         <f>Data!E8</f>
         <v>-</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="14">
         <f>Data!F8</f>
-        <v>7.9068785104886519E-2</v>
-      </c>
-      <c r="R4" s="18">
+        <v>7.8032346469988148E-2</v>
+      </c>
+      <c r="R4" s="14">
         <f>Data!G8</f>
-        <v>-4.7370260833802691E-2</v>
-      </c>
-      <c r="S4" s="18">
+        <v>-4.6749328459437113E-2</v>
+      </c>
+      <c r="S4" s="14">
         <f>Data!H8</f>
-        <v>8.3252897024251107E-2</v>
-      </c>
-      <c r="T4" s="18">
+        <v>9.4685943910113618E-2</v>
+      </c>
+      <c r="T4" s="14">
         <f>Data!I8</f>
-        <v>-4.987697031106595E-2</v>
+        <v>-5.672653063237286E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="30" t="str">
         <f>Data!B3</f>
         <v>-</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="30">
         <f>Data!C3</f>
         <v>-0.18117413699041521</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="30" t="str">
         <f>Data!D3</f>
         <v>-</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="30">
         <f>Data!E3</f>
         <v>-0.23221079556337351</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="30" t="str">
         <f>Data!F3</f>
         <v>-</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="30">
         <f>Data!G3</f>
-        <v>-0.22765804174876009</v>
-      </c>
-      <c r="H5" s="19" t="str">
+        <v>-0.2280834215829706</v>
+      </c>
+      <c r="H5" s="30" t="str">
         <f>Data!H3</f>
         <v>-</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="30">
         <f>Data!I3</f>
-        <v>-0.23970510589368851</v>
+        <v>-0.27676079266869119</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="15" t="str">
         <f>Data!B9</f>
         <v>-</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="15">
         <f>Data!C9</f>
         <v>-0.18117413699041521</v>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="15" t="str">
         <f>Data!D9</f>
         <v>-</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="15">
         <f>Data!E9</f>
         <v>-0.23221079556337351</v>
       </c>
-      <c r="Q5" s="19" t="str">
+      <c r="Q5" s="15" t="str">
         <f>Data!F9</f>
         <v>-</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="15">
         <f>Data!G9</f>
-        <v>-0.22765804174876009</v>
-      </c>
-      <c r="S5" s="19" t="str">
+        <v>-0.2280834215829706</v>
+      </c>
+      <c r="S5" s="15" t="str">
         <f>Data!H9</f>
         <v>-</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="15">
         <f>Data!I9</f>
-        <v>-0.23970510589368851</v>
+        <v>-0.27676079266869119</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="30">
         <f>Data!B4</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="30" t="str">
         <f>Data!C4</f>
         <v>-</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="30">
         <f>Data!D4</f>
         <v>-3.9610573860254197E-2</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="30" t="str">
         <f>Data!E4</f>
         <v>-</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="30" t="str">
         <f>Data!F4</f>
         <v>-</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="30" t="str">
         <f>Data!G4</f>
         <v>-</v>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="30" t="str">
         <f>Data!H4</f>
         <v>-</v>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="30" t="str">
         <f>Data!I4</f>
         <v>-</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="15">
         <f>Data!B10</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="N6" s="19" t="str">
+      <c r="N6" s="15" t="str">
         <f>Data!C10</f>
         <v>-</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="15">
         <f>Data!D10</f>
         <v>-3.9610573860254197E-2</v>
       </c>
-      <c r="P6" s="19" t="str">
+      <c r="P6" s="15" t="str">
         <f>Data!E10</f>
         <v>-</v>
       </c>
-      <c r="Q6" s="19" t="str">
+      <c r="Q6" s="15" t="str">
         <f>Data!F10</f>
         <v>-</v>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="15" t="str">
         <f>Data!G10</f>
         <v>-</v>
       </c>
-      <c r="S6" s="19" t="str">
+      <c r="S6" s="15" t="str">
         <f>Data!H10</f>
         <v>-</v>
       </c>
-      <c r="T6" s="19" t="str">
+      <c r="T6" s="15" t="str">
         <f>Data!I10</f>
         <v>-</v>
       </c>
@@ -2468,151 +2474,151 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="31">
         <f>Data!B5</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="31">
         <f>Data!C5</f>
         <v>-0.18117413699041521</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="31">
         <f>Data!D5</f>
         <v>-3.9610573860254197E-2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <f>Data!E5</f>
         <v>-0.23221079556337351</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <f>Data!F5</f>
-        <v>7.9068785104886519E-2</v>
-      </c>
-      <c r="G7" s="29">
+        <v>7.8032346469988148E-2</v>
+      </c>
+      <c r="G7" s="31">
         <f>Data!G5</f>
-        <v>-0.27502830258256278</v>
-      </c>
-      <c r="H7" s="29">
+        <v>-0.2748327500424077</v>
+      </c>
+      <c r="H7" s="31">
         <f>Data!H5</f>
-        <v>8.3252897024251107E-2</v>
-      </c>
-      <c r="I7" s="29">
+        <v>9.4685943910113618E-2</v>
+      </c>
+      <c r="I7" s="31">
         <f>Data!I5</f>
-        <v>-0.2895820762047544</v>
+        <v>-0.33348732330106412</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="24">
         <f>Data!B11</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="24">
         <f>Data!C11</f>
         <v>-0.18117413699041521</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="24">
         <f>Data!D11</f>
         <v>-3.9610573860254197E-2</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="24">
         <f>Data!E11</f>
         <v>-0.23221079556337351</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="24">
         <f>Data!F11</f>
-        <v>7.9068785104886519E-2</v>
-      </c>
-      <c r="R7" s="29">
+        <v>7.8032346469988148E-2</v>
+      </c>
+      <c r="R7" s="24">
         <f>Data!G11</f>
-        <v>-0.27502830258256278</v>
-      </c>
-      <c r="S7" s="29">
+        <v>-0.2748327500424077</v>
+      </c>
+      <c r="S7" s="24">
         <f>Data!H11</f>
-        <v>8.3252897024251107E-2</v>
-      </c>
-      <c r="T7" s="29">
+        <v>9.4685943910113618E-2</v>
+      </c>
+      <c r="T7" s="24">
         <f>Data!I11</f>
-        <v>-0.2895820762047544</v>
+        <v>-0.33348732330106412</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="7" t="s">
+      <c r="I9" s="26"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="25"/>
+      <c r="O9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7" t="s">
+      <c r="R9" s="25"/>
+      <c r="S9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="7"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="R10" s="6" t="s">
@@ -2626,291 +2632,291 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="16" t="str">
         <f>Data!J2</f>
         <v>-</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="16" t="str">
         <f>Data!K2</f>
         <v>-</v>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="16" t="str">
         <f>Data!L2</f>
         <v>-</v>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" s="16" t="str">
         <f>Data!M2</f>
         <v>-</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <f>Data!N2</f>
-        <v>7.2320270538326112E-2</v>
-      </c>
-      <c r="G11" s="20">
+        <v>7.1388409664502162E-2</v>
+      </c>
+      <c r="G11" s="16">
         <f>Data!O2</f>
-        <v>-4.332721281131658E-2</v>
-      </c>
-      <c r="H11" s="20">
+        <v>-4.276893317422209E-2</v>
+      </c>
+      <c r="H11" s="16">
         <f>Data!P2</f>
-        <v>8.7894506879034745E-2</v>
-      </c>
-      <c r="I11" s="20">
+        <v>9.4678519171323638E-2</v>
+      </c>
+      <c r="I11" s="16">
         <f>Data!Q2</f>
-        <v>-5.2657767679056167E-2</v>
+        <v>-5.6722082457121098E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="22" t="str">
+      <c r="M11" s="18" t="str">
         <f>Data!J8</f>
         <v>-</v>
       </c>
-      <c r="N11" s="22" t="str">
+      <c r="N11" s="18" t="str">
         <f>Data!K8</f>
         <v>-</v>
       </c>
-      <c r="O11" s="22" t="str">
+      <c r="O11" s="18" t="str">
         <f>Data!L8</f>
         <v>-</v>
       </c>
-      <c r="P11" s="22" t="str">
+      <c r="P11" s="18" t="str">
         <f>Data!M8</f>
         <v>-</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="18">
         <f>Data!N8</f>
-        <v>7.2320270538326112E-2</v>
-      </c>
-      <c r="R11" s="22">
+        <v>7.1388409664502162E-2</v>
+      </c>
+      <c r="R11" s="18">
         <f>Data!O8</f>
-        <v>-4.332721281131658E-2</v>
-      </c>
-      <c r="S11" s="22">
+        <v>-4.276893317422209E-2</v>
+      </c>
+      <c r="S11" s="18">
         <f>Data!P8</f>
-        <v>8.7894506879034745E-2</v>
-      </c>
-      <c r="T11" s="22">
+        <v>9.4678519171323638E-2</v>
+      </c>
+      <c r="T11" s="18">
         <f>Data!Q8</f>
-        <v>-5.2657767679056167E-2</v>
+        <v>-5.6722082457121098E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="17" t="str">
         <f>Data!J3</f>
         <v>-</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <f>Data!K3</f>
         <v>-0.13166149471884389</v>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="17" t="str">
         <f>Data!L3</f>
         <v>-</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <f>Data!M3</f>
         <v>-0.18976173824355119</v>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="17" t="str">
         <f>Data!N3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <f>Data!O3</f>
-        <v>-0.17894037549039651</v>
-      </c>
-      <c r="H12" s="21" t="str">
+        <v>-0.17923737645286669</v>
+      </c>
+      <c r="H12" s="17" t="str">
         <f>Data!P3</f>
         <v>-</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <f>Data!Q3</f>
-        <v>-0.21747534885316461</v>
+        <v>-0.2377126687996354</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="22" t="str">
+      <c r="M12" s="18" t="str">
         <f>Data!J9</f>
         <v>-</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="18">
         <f>Data!K9</f>
         <v>-0.13166149471884389</v>
       </c>
-      <c r="O12" s="22" t="str">
+      <c r="O12" s="18" t="str">
         <f>Data!L9</f>
         <v>-</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="18">
         <f>Data!M9</f>
         <v>-0.18976173824355119</v>
       </c>
-      <c r="Q12" s="22" t="str">
+      <c r="Q12" s="18" t="str">
         <f>Data!N9</f>
         <v>-</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="18">
         <f>Data!O9</f>
-        <v>-0.17894037549039651</v>
-      </c>
-      <c r="S12" s="22" t="str">
+        <v>-0.17923737645286669</v>
+      </c>
+      <c r="S12" s="18" t="str">
         <f>Data!P9</f>
         <v>-</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="18">
         <f>Data!Q9</f>
-        <v>-0.21747534885316461</v>
+        <v>-0.2377126687996354</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <f>Data!J4</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="17" t="str">
         <f>Data!K4</f>
         <v>-</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <f>Data!L4</f>
         <v>-2.1289564733259821E-2</v>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="17" t="str">
         <f>Data!M4</f>
         <v>-</v>
       </c>
-      <c r="F13" s="21" t="str">
+      <c r="F13" s="17" t="str">
         <f>Data!N4</f>
         <v>-</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G13" s="17" t="str">
         <f>Data!O4</f>
         <v>-</v>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="17" t="str">
         <f>Data!P4</f>
         <v>-</v>
       </c>
-      <c r="I13" s="21" t="str">
+      <c r="I13" s="17" t="str">
         <f>Data!Q4</f>
         <v>-</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="18">
         <f>Data!J10</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="N13" s="22" t="str">
+      <c r="N13" s="18" t="str">
         <f>Data!K10</f>
         <v>-</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="18">
         <f>Data!L10</f>
         <v>-2.1289564733259821E-2</v>
       </c>
-      <c r="P13" s="22" t="str">
+      <c r="P13" s="18" t="str">
         <f>Data!M10</f>
         <v>-</v>
       </c>
-      <c r="Q13" s="22" t="str">
+      <c r="Q13" s="18" t="str">
         <f>Data!N10</f>
         <v>-</v>
       </c>
-      <c r="R13" s="22" t="str">
+      <c r="R13" s="18" t="str">
         <f>Data!O10</f>
         <v>-</v>
       </c>
-      <c r="S13" s="22" t="str">
+      <c r="S13" s="18" t="str">
         <f>Data!P10</f>
         <v>-</v>
       </c>
-      <c r="T13" s="22" t="str">
+      <c r="T13" s="18" t="str">
         <f>Data!Q10</f>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="22">
         <f>Data!J5</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="22">
         <f>Data!K5</f>
         <v>-0.13166149471884389</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="22">
         <f>Data!L5</f>
         <v>-2.1289564733259821E-2</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="22">
         <f>Data!M5</f>
         <v>-0.18976173824355119</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <f>Data!N5</f>
-        <v>7.2320270538326112E-2</v>
-      </c>
-      <c r="G14" s="27">
+        <v>7.1388409664502162E-2</v>
+      </c>
+      <c r="G14" s="22">
         <f>Data!O5</f>
-        <v>-0.22226758830171309</v>
-      </c>
-      <c r="H14" s="27">
+        <v>-0.22200630962708881</v>
+      </c>
+      <c r="H14" s="22">
         <f>Data!P5</f>
-        <v>8.7894506879034745E-2</v>
-      </c>
-      <c r="I14" s="27">
+        <v>9.4678519171323638E-2</v>
+      </c>
+      <c r="I14" s="22">
         <f>Data!Q5</f>
-        <v>-0.27013311653222072</v>
+        <v>-0.29443475125675661</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="23">
         <f>Data!J11</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="23">
         <f>Data!K11</f>
         <v>-0.13166149471884389</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="23">
         <f>Data!L11</f>
         <v>-2.1289564733259821E-2</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="23">
         <f>Data!M11</f>
         <v>-0.18976173824355119</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="23">
         <f>Data!N11</f>
-        <v>7.2320270538326112E-2</v>
-      </c>
-      <c r="R14" s="28">
+        <v>7.1388409664502162E-2</v>
+      </c>
+      <c r="R14" s="23">
         <f>Data!O11</f>
-        <v>-0.22226758830171309</v>
-      </c>
-      <c r="S14" s="28">
+        <v>-0.22200630962708881</v>
+      </c>
+      <c r="S14" s="23">
         <f>Data!P11</f>
-        <v>8.7894506879034745E-2</v>
-      </c>
-      <c r="T14" s="28">
+        <v>9.4678519171323638E-2</v>
+      </c>
+      <c r="T14" s="23">
         <f>Data!Q11</f>
-        <v>-0.27013311653222072</v>
+        <v>-0.29443475125675661</v>
       </c>
     </row>
   </sheetData>
@@ -2954,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FC4D7E-5B0C-4888-A1D7-B7281011A3C3}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2965,24 +2971,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3012,225 +3018,225 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="20" t="str">
         <f>Data!B14</f>
         <v>-</v>
       </c>
-      <c r="C3" s="25" t="str">
+      <c r="C3" s="20" t="str">
         <f>Data!C14</f>
         <v>-</v>
       </c>
-      <c r="D3" s="25" t="str">
+      <c r="D3" s="20" t="str">
         <f>Data!B22</f>
         <v>-</v>
       </c>
-      <c r="E3" s="25" t="str">
+      <c r="E3" s="20" t="str">
         <f>Data!C22</f>
         <v>-</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="20">
         <f>Data!D14</f>
-        <v>-4.775709098785285E-2</v>
-      </c>
-      <c r="G3" s="25">
+        <v>8.3558174344123326E-2</v>
+      </c>
+      <c r="G3" s="20">
         <f>Data!E14</f>
-        <v>3.1838060658568722E-2</v>
-      </c>
-      <c r="H3" s="25">
+        <v>-4.8206639044686507E-2</v>
+      </c>
+      <c r="H3" s="20">
         <f>Data!D22</f>
-        <v>1.6069396342335809E-2</v>
-      </c>
-      <c r="I3" s="25">
+        <v>4.22940090681269E-2</v>
+      </c>
+      <c r="I3" s="20">
         <f>Data!E22</f>
-        <v>1.6069396342335809E-2</v>
+        <v>-2.4400389846996291E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="20" t="str">
         <f>Data!B15</f>
         <v>-</v>
       </c>
-      <c r="C4" s="25" t="str">
+      <c r="C4" s="20" t="str">
         <f>Data!C15</f>
         <v>-</v>
       </c>
-      <c r="D4" s="25" t="str">
+      <c r="D4" s="20" t="str">
         <f>Data!B23</f>
         <v>-</v>
       </c>
-      <c r="E4" s="25" t="str">
+      <c r="E4" s="20" t="str">
         <f>Data!C23</f>
         <v>-</v>
       </c>
-      <c r="F4" s="25" t="str">
+      <c r="F4" s="20" t="str">
         <f>Data!D15</f>
         <v>-</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="20">
         <f>Data!E15</f>
-        <v>-7.3901806894423813E-2</v>
-      </c>
-      <c r="H4" s="25" t="str">
+        <v>-7.459746319074996E-2</v>
+      </c>
+      <c r="H4" s="20" t="str">
         <f>Data!D23</f>
         <v>-</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="20">
         <f>Data!E23</f>
-        <v>-3.7241910717973857E-2</v>
+        <v>-3.7699717034851379E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="20" t="str">
         <f>Data!B16</f>
         <v>-</v>
       </c>
-      <c r="C5" s="25" t="str">
+      <c r="C5" s="20" t="str">
         <f>Data!C16</f>
         <v>-</v>
       </c>
-      <c r="D5" s="25" t="str">
+      <c r="D5" s="20" t="str">
         <f>Data!B24</f>
         <v>-</v>
       </c>
-      <c r="E5" s="25" t="str">
+      <c r="E5" s="20" t="str">
         <f>Data!C24</f>
         <v>-</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <f>Data!D16</f>
-        <v>2.731121589364093</v>
-      </c>
-      <c r="G5" s="25">
+        <v>2.7191773293535091</v>
+      </c>
+      <c r="G5" s="20">
         <f>Data!E16</f>
-        <v>-0.34139019867051151</v>
-      </c>
-      <c r="H5" s="25">
+        <v>-0.33989716616918858</v>
+      </c>
+      <c r="H5" s="20">
         <f>Data!D24</f>
-        <v>3.3602643152762832</v>
-      </c>
-      <c r="I5" s="25">
+        <v>3.352400276805815</v>
+      </c>
+      <c r="I5" s="20">
         <f>Data!E24</f>
-        <v>-0.42003303940953551</v>
+        <v>-0.41905003460072671</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="str">
+      <c r="B6" s="20" t="str">
         <f>Data!B17</f>
         <v>-</v>
       </c>
-      <c r="C6" s="25" t="str">
+      <c r="C6" s="20" t="str">
         <f>Data!C17</f>
         <v>-</v>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="20" t="str">
         <f>Data!B25</f>
         <v>-</v>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="20" t="str">
         <f>Data!C25</f>
         <v>-</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <f>Data!D17</f>
-        <v>-9.9780970175366111E-3</v>
-      </c>
-      <c r="G6" s="25">
+        <v>0.15261974017817609</v>
+      </c>
+      <c r="G6" s="20">
         <f>Data!E17</f>
-        <v>0.1511964925582977</v>
-      </c>
-      <c r="H6" s="25">
+        <v>-0.1044799191123106</v>
+      </c>
+      <c r="H6" s="20">
         <f>Data!D25</f>
-        <v>-0.33826599291200721</v>
-      </c>
-      <c r="I6" s="25">
+        <v>0.40374243314620439</v>
+      </c>
+      <c r="I6" s="20">
         <f>Data!E25</f>
-        <v>0.39883963125630351</v>
+        <v>-0.34217195165289338</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="20">
         <f>Data!B18</f>
-        <v>0.27710843373493999</v>
-      </c>
-      <c r="C7" s="25">
+        <v>0.27710843373493949</v>
+      </c>
+      <c r="C7" s="20">
         <f>Data!C18</f>
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="D7" s="20">
+        <f>Data!B26</f>
+        <v>0.27710843373493987</v>
+      </c>
+      <c r="E7" s="20">
+        <f>Data!C26</f>
         <v>-0.39428571428571418</v>
       </c>
-      <c r="D7" s="25">
-        <f>Data!B26</f>
-        <v>0.27710843373493982</v>
-      </c>
-      <c r="E7" s="25">
-        <f>Data!C26</f>
-        <v>-0.39428571428571441</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <f>Data!D18</f>
-        <v>0.27710843373493982</v>
-      </c>
-      <c r="G7" s="25">
+        <v>0.27710843373493987</v>
+      </c>
+      <c r="G7" s="20">
         <f>Data!E18</f>
         <v>-0.39428571428571407</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="20">
         <f>Data!D26</f>
-        <v>0.2771084337349396</v>
-      </c>
-      <c r="I7" s="25">
+        <v>0.27710843373493987</v>
+      </c>
+      <c r="I7" s="20">
         <f>Data!E26</f>
-        <v>-0.39428571428571429</v>
+        <v>-0.39428571428571441</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="21">
         <f>Data!B19</f>
-        <v>0.27710843373493999</v>
-      </c>
-      <c r="C8" s="26">
+        <v>0.27710843373493949</v>
+      </c>
+      <c r="C8" s="21">
         <f>Data!C19</f>
+        <v>-0.39428571428571441</v>
+      </c>
+      <c r="D8" s="21">
+        <f>Data!B27</f>
+        <v>0.27710843373493987</v>
+      </c>
+      <c r="E8" s="21">
+        <f>Data!C27</f>
         <v>-0.39428571428571418</v>
       </c>
-      <c r="D8" s="26">
-        <f>Data!B27</f>
-        <v>0.27710843373493982</v>
-      </c>
-      <c r="E8" s="26">
-        <f>Data!C27</f>
-        <v>-0.39428571428571441</v>
-      </c>
-      <c r="F8" s="26">
+      <c r="F8" s="21">
         <f>Data!D19</f>
-        <v>2.9504948350936431</v>
-      </c>
-      <c r="G8" s="26">
+        <v>3.232463677610748</v>
+      </c>
+      <c r="G8" s="21">
         <f>Data!E19</f>
-        <v>-0.62654316663378296</v>
-      </c>
-      <c r="H8" s="26">
+        <v>-0.96146690180264982</v>
+      </c>
+      <c r="H8" s="21">
         <f>Data!D27</f>
-        <v>3.3151761524415511</v>
-      </c>
-      <c r="I8" s="26">
+        <v>4.0755451527550859</v>
+      </c>
+      <c r="I8" s="21">
         <f>Data!E27</f>
-        <v>-0.43665163681458441</v>
+        <v>-1.217607807421182</v>
       </c>
     </row>
   </sheetData>
@@ -3257,21 +3263,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/results/sensitivity.xlsx
+++ b/results/sensitivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CA0225-DD6B-4312-AFA2-3D6D338CF55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA160CB7-C8B6-4658-9A51-0EE9F4C748CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
@@ -190,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -305,18 +311,6 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -326,6 +320,19 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,10 +366,10 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v>H2S - lower%</v>
+            <v>H2I - lower%</v>
           </cell>
           <cell r="C1" t="str">
-            <v>H2S - upper%</v>
+            <v>H2I - upper%</v>
           </cell>
           <cell r="D1" t="str">
             <v>H2R - lower%</v>
@@ -383,10 +390,10 @@
             <v>ASW - upper%</v>
           </cell>
           <cell r="J1" t="str">
-            <v>H4S - lower%</v>
+            <v>H4I - lower%</v>
           </cell>
           <cell r="K1" t="str">
-            <v>H4S - upper%</v>
+            <v>H4I - upper%</v>
           </cell>
           <cell r="L1" t="str">
             <v>H4R - lower%</v>
@@ -517,18 +524,18 @@
           <cell r="A4" t="str">
             <v>protection cover</v>
           </cell>
-          <cell r="B4">
+          <cell r="B4" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="C4">
             <v>-7.1806989356617459E-2</v>
           </cell>
-          <cell r="C4" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D4">
+          <cell r="D4" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="E4">
             <v>-3.9610573860254197E-2</v>
           </cell>
-          <cell r="E4" t="str">
-            <v>-</v>
-          </cell>
           <cell r="F4" t="str">
             <v>-</v>
           </cell>
@@ -541,17 +548,17 @@
           <cell r="I4" t="str">
             <v>-</v>
           </cell>
-          <cell r="J4">
+          <cell r="J4" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="K4">
             <v>-4.2433227678745238E-2</v>
           </cell>
-          <cell r="K4" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="L4">
+          <cell r="L4" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="M4">
             <v>-2.1289564733259821E-2</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>-</v>
           </cell>
           <cell r="N4" t="str">
             <v>-</v>
@@ -570,17 +577,17 @@
           <cell r="A5" t="str">
             <v>total</v>
           </cell>
-          <cell r="B5">
-            <v>-7.1806989356617459E-2</v>
+          <cell r="B5" t="str">
+            <v>-</v>
           </cell>
           <cell r="C5">
-            <v>-0.18117413699041521</v>
-          </cell>
-          <cell r="D5">
-            <v>-3.9610573860254197E-2</v>
+            <v>-0.25298112634703263</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>-</v>
           </cell>
           <cell r="E5">
-            <v>-0.23221079556337351</v>
+            <v>-0.27182136942362772</v>
           </cell>
           <cell r="F5">
             <v>7.8032346469988148E-2</v>
@@ -594,17 +601,17 @@
           <cell r="I5">
             <v>-0.33348732330106412</v>
           </cell>
-          <cell r="J5">
-            <v>-4.2433227678745238E-2</v>
+          <cell r="J5" t="str">
+            <v>-</v>
           </cell>
           <cell r="K5">
-            <v>-0.13166149471884389</v>
-          </cell>
-          <cell r="L5">
-            <v>-2.1289564733259821E-2</v>
+            <v>-0.17409472239758919</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>-</v>
           </cell>
           <cell r="M5">
-            <v>-0.18976173824355119</v>
+            <v>-0.21105130297681099</v>
           </cell>
           <cell r="N5">
             <v>7.1388409664502162E-2</v>
@@ -1120,11 +1127,11 @@
       </c>
       <c r="B1" t="str">
         <f>[1]case1_cut_off!B1</f>
-        <v>H2S - lower%</v>
+        <v>H2I - lower%</v>
       </c>
       <c r="C1" t="str">
         <f>[1]case1_cut_off!C1</f>
-        <v>H2S - upper%</v>
+        <v>H2I - upper%</v>
       </c>
       <c r="D1" t="str">
         <f>[1]case1_cut_off!D1</f>
@@ -1152,11 +1159,11 @@
       </c>
       <c r="J1" t="str">
         <f>[1]case1_cut_off!J1</f>
-        <v>H4S - lower%</v>
+        <v>H4I - lower%</v>
       </c>
       <c r="K1" t="str">
         <f>[1]case1_cut_off!K1</f>
-        <v>H4S - upper%</v>
+        <v>H4I - upper%</v>
       </c>
       <c r="L1" t="str">
         <f>[1]case1_cut_off!L1</f>
@@ -1331,21 +1338,21 @@
         <f>[1]case1_cut_off!A4</f>
         <v>protection cover</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="str">
         <f>[1]case1_cut_off!B4</f>
+        <v>-</v>
+      </c>
+      <c r="C4">
+        <f>[1]case1_cut_off!C4</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="C4" t="str">
-        <f>[1]case1_cut_off!C4</f>
-        <v>-</v>
-      </c>
-      <c r="D4">
+      <c r="D4" t="str">
         <f>[1]case1_cut_off!D4</f>
+        <v>-</v>
+      </c>
+      <c r="E4">
+        <f>[1]case1_cut_off!E4</f>
         <v>-3.9610573860254197E-2</v>
-      </c>
-      <c r="E4" t="str">
-        <f>[1]case1_cut_off!E4</f>
-        <v>-</v>
       </c>
       <c r="F4" t="str">
         <f>[1]case1_cut_off!F4</f>
@@ -1363,21 +1370,21 @@
         <f>[1]case1_cut_off!I4</f>
         <v>-</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="str">
         <f>[1]case1_cut_off!J4</f>
+        <v>-</v>
+      </c>
+      <c r="K4">
+        <f>[1]case1_cut_off!K4</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="K4" t="str">
-        <f>[1]case1_cut_off!K4</f>
-        <v>-</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="str">
         <f>[1]case1_cut_off!L4</f>
+        <v>-</v>
+      </c>
+      <c r="M4">
+        <f>[1]case1_cut_off!M4</f>
         <v>-2.1289564733259821E-2</v>
-      </c>
-      <c r="M4" t="str">
-        <f>[1]case1_cut_off!M4</f>
-        <v>-</v>
       </c>
       <c r="N4" t="str">
         <f>[1]case1_cut_off!N4</f>
@@ -1401,21 +1408,21 @@
         <f>[1]case1_cut_off!A5</f>
         <v>total</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="str">
         <f>[1]case1_cut_off!B5</f>
-        <v>-7.1806989356617459E-2</v>
+        <v>-</v>
       </c>
       <c r="C5">
         <f>[1]case1_cut_off!C5</f>
-        <v>-0.18117413699041521</v>
-      </c>
-      <c r="D5">
+        <v>-0.25298112634703263</v>
+      </c>
+      <c r="D5" t="str">
         <f>[1]case1_cut_off!D5</f>
-        <v>-3.9610573860254197E-2</v>
+        <v>-</v>
       </c>
       <c r="E5">
         <f>[1]case1_cut_off!E5</f>
-        <v>-0.23221079556337351</v>
+        <v>-0.27182136942362772</v>
       </c>
       <c r="F5">
         <f>[1]case1_cut_off!F5</f>
@@ -1433,21 +1440,21 @@
         <f>[1]case1_cut_off!I5</f>
         <v>-0.33348732330106412</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="str">
         <f>[1]case1_cut_off!J5</f>
-        <v>-4.2433227678745238E-2</v>
+        <v>-</v>
       </c>
       <c r="K5">
         <f>[1]case1_cut_off!K5</f>
-        <v>-0.13166149471884389</v>
-      </c>
-      <c r="L5">
+        <v>-0.17409472239758919</v>
+      </c>
+      <c r="L5" t="str">
         <f>[1]case1_cut_off!L5</f>
-        <v>-2.1289564733259821E-2</v>
+        <v>-</v>
       </c>
       <c r="M5">
         <f>[1]case1_cut_off!M5</f>
-        <v>-0.18976173824355119</v>
+        <v>-0.21105130297681099</v>
       </c>
       <c r="N5">
         <f>[1]case1_cut_off!N5</f>
@@ -1473,11 +1480,11 @@
       </c>
       <c r="B7" t="str">
         <f>[1]case1_cut_off!B1</f>
-        <v>H2S - lower%</v>
+        <v>H2I - lower%</v>
       </c>
       <c r="C7" t="str">
         <f>[1]case1_cut_off!C1</f>
-        <v>H2S - upper%</v>
+        <v>H2I - upper%</v>
       </c>
       <c r="D7" t="str">
         <f>[1]case1_cut_off!D1</f>
@@ -1505,11 +1512,11 @@
       </c>
       <c r="J7" t="str">
         <f>[1]case1_cut_off!J1</f>
-        <v>H4S - lower%</v>
+        <v>H4I - lower%</v>
       </c>
       <c r="K7" t="str">
         <f>[1]case1_cut_off!K1</f>
-        <v>H4S - upper%</v>
+        <v>H4I - upper%</v>
       </c>
       <c r="L7" t="str">
         <f>[1]case1_cut_off!L1</f>
@@ -1684,21 +1691,21 @@
         <f>[1]case1_cut_off!A4</f>
         <v>protection cover</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="str">
         <f>[1]case1_cut_off!B4</f>
+        <v>-</v>
+      </c>
+      <c r="C10">
+        <f>[1]case1_cut_off!C4</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="C10" t="str">
-        <f>[1]case1_cut_off!C4</f>
-        <v>-</v>
-      </c>
-      <c r="D10">
+      <c r="D10" t="str">
         <f>[1]case1_cut_off!D4</f>
+        <v>-</v>
+      </c>
+      <c r="E10">
+        <f>[1]case1_cut_off!E4</f>
         <v>-3.9610573860254197E-2</v>
-      </c>
-      <c r="E10" t="str">
-        <f>[1]case1_cut_off!E4</f>
-        <v>-</v>
       </c>
       <c r="F10" t="str">
         <f>[1]case1_cut_off!F4</f>
@@ -1716,21 +1723,21 @@
         <f>[1]case1_cut_off!I4</f>
         <v>-</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="str">
         <f>[1]case1_cut_off!J4</f>
+        <v>-</v>
+      </c>
+      <c r="K10">
+        <f>[1]case1_cut_off!K4</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="K10" t="str">
-        <f>[1]case1_cut_off!K4</f>
-        <v>-</v>
-      </c>
-      <c r="L10">
+      <c r="L10" t="str">
         <f>[1]case1_cut_off!L4</f>
+        <v>-</v>
+      </c>
+      <c r="M10">
+        <f>[1]case1_cut_off!M4</f>
         <v>-2.1289564733259821E-2</v>
-      </c>
-      <c r="M10" t="str">
-        <f>[1]case1_cut_off!M4</f>
-        <v>-</v>
       </c>
       <c r="N10" t="str">
         <f>[1]case1_cut_off!N4</f>
@@ -1754,21 +1761,21 @@
         <f>[1]case1_cut_off!A5</f>
         <v>total</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="str">
         <f>[1]case1_cut_off!B5</f>
-        <v>-7.1806989356617459E-2</v>
+        <v>-</v>
       </c>
       <c r="C11">
         <f>[1]case1_cut_off!C5</f>
-        <v>-0.18117413699041521</v>
-      </c>
-      <c r="D11">
+        <v>-0.25298112634703263</v>
+      </c>
+      <c r="D11" t="str">
         <f>[1]case1_cut_off!D5</f>
-        <v>-3.9610573860254197E-2</v>
+        <v>-</v>
       </c>
       <c r="E11">
         <f>[1]case1_cut_off!E5</f>
-        <v>-0.23221079556337351</v>
+        <v>-0.27182136942362772</v>
       </c>
       <c r="F11">
         <f>[1]case1_cut_off!F5</f>
@@ -1786,21 +1793,21 @@
         <f>[1]case1_cut_off!I5</f>
         <v>-0.33348732330106412</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="str">
         <f>[1]case1_cut_off!J5</f>
-        <v>-4.2433227678745238E-2</v>
+        <v>-</v>
       </c>
       <c r="K11">
         <f>[1]case1_cut_off!K5</f>
-        <v>-0.13166149471884389</v>
-      </c>
-      <c r="L11">
+        <v>-0.17409472239758919</v>
+      </c>
+      <c r="L11" t="str">
         <f>[1]case1_cut_off!L5</f>
-        <v>-2.1289564733259821E-2</v>
+        <v>-</v>
       </c>
       <c r="M11">
         <f>[1]case1_cut_off!M5</f>
-        <v>-0.18976173824355119</v>
+        <v>-0.21105130297681099</v>
       </c>
       <c r="N11">
         <f>[1]case1_cut_off!N5</f>
@@ -2143,64 +2150,64 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="L1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="L1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="30"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="30"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2258,35 +2265,35 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="25" t="str">
         <f>Data!B2</f>
         <v>-</v>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="25" t="str">
         <f>Data!C2</f>
         <v>-</v>
       </c>
-      <c r="D4" s="29" t="str">
+      <c r="D4" s="25" t="str">
         <f>Data!D2</f>
         <v>-</v>
       </c>
-      <c r="E4" s="29" t="str">
+      <c r="E4" s="25" t="str">
         <f>Data!E2</f>
         <v>-</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="25">
         <f>Data!F2</f>
         <v>7.8032346469988148E-2</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="25">
         <f>Data!G2</f>
         <v>-4.6749328459437113E-2</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="25">
         <f>Data!H2</f>
         <v>9.4685943910113618E-2</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="25">
         <f>Data!I2</f>
         <v>-5.672653063237286E-2</v>
       </c>
@@ -2330,35 +2337,35 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="26" t="str">
         <f>Data!B3</f>
         <v>-</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <f>Data!C3</f>
         <v>-0.18117413699041521</v>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="26" t="str">
         <f>Data!D3</f>
         <v>-</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <f>Data!E3</f>
         <v>-0.23221079556337351</v>
       </c>
-      <c r="F5" s="30" t="str">
+      <c r="F5" s="26" t="str">
         <f>Data!F3</f>
         <v>-</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="26">
         <f>Data!G3</f>
         <v>-0.2280834215829706</v>
       </c>
-      <c r="H5" s="30" t="str">
+      <c r="H5" s="26" t="str">
         <f>Data!H3</f>
         <v>-</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="26">
         <f>Data!I3</f>
         <v>-0.27676079266869119</v>
       </c>
@@ -2402,56 +2409,56 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="26" t="str">
         <f>Data!B4</f>
+        <v>-</v>
+      </c>
+      <c r="C6" s="26">
+        <f>Data!C4</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="C6" s="30" t="str">
-        <f>Data!C4</f>
-        <v>-</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26" t="str">
         <f>Data!D4</f>
+        <v>-</v>
+      </c>
+      <c r="E6" s="26">
+        <f>Data!E4</f>
         <v>-3.9610573860254197E-2</v>
       </c>
-      <c r="E6" s="30" t="str">
-        <f>Data!E4</f>
-        <v>-</v>
-      </c>
-      <c r="F6" s="30" t="str">
+      <c r="F6" s="26" t="str">
         <f>Data!F4</f>
         <v>-</v>
       </c>
-      <c r="G6" s="30" t="str">
+      <c r="G6" s="26" t="str">
         <f>Data!G4</f>
         <v>-</v>
       </c>
-      <c r="H6" s="30" t="str">
+      <c r="H6" s="26" t="str">
         <f>Data!H4</f>
         <v>-</v>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="26" t="str">
         <f>Data!I4</f>
         <v>-</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="15" t="str">
         <f>Data!B10</f>
+        <v>-</v>
+      </c>
+      <c r="N6" s="15">
+        <f>Data!C10</f>
         <v>-7.1806989356617459E-2</v>
       </c>
-      <c r="N6" s="15" t="str">
-        <f>Data!C10</f>
-        <v>-</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="O6" s="15" t="str">
         <f>Data!D10</f>
+        <v>-</v>
+      </c>
+      <c r="P6" s="15">
+        <f>Data!E10</f>
         <v>-3.9610573860254197E-2</v>
-      </c>
-      <c r="P6" s="15" t="str">
-        <f>Data!E10</f>
-        <v>-</v>
       </c>
       <c r="Q6" s="15" t="str">
         <f>Data!F10</f>
@@ -2474,56 +2481,56 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="27" t="str">
         <f>Data!B5</f>
-        <v>-7.1806989356617459E-2</v>
-      </c>
-      <c r="C7" s="31">
+        <v>-</v>
+      </c>
+      <c r="C7" s="27">
         <f>Data!C5</f>
-        <v>-0.18117413699041521</v>
-      </c>
-      <c r="D7" s="31">
+        <v>-0.25298112634703263</v>
+      </c>
+      <c r="D7" s="27" t="str">
         <f>Data!D5</f>
-        <v>-3.9610573860254197E-2</v>
-      </c>
-      <c r="E7" s="31">
+        <v>-</v>
+      </c>
+      <c r="E7" s="27">
         <f>Data!E5</f>
-        <v>-0.23221079556337351</v>
-      </c>
-      <c r="F7" s="31">
+        <v>-0.27182136942362772</v>
+      </c>
+      <c r="F7" s="27">
         <f>Data!F5</f>
         <v>7.8032346469988148E-2</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="27">
         <f>Data!G5</f>
         <v>-0.2748327500424077</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="27">
         <f>Data!H5</f>
         <v>9.4685943910113618E-2</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="27">
         <f>Data!I5</f>
         <v>-0.33348732330106412</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="24" t="str">
         <f>Data!B11</f>
-        <v>-7.1806989356617459E-2</v>
+        <v>-</v>
       </c>
       <c r="N7" s="24">
         <f>Data!C11</f>
-        <v>-0.18117413699041521</v>
-      </c>
-      <c r="O7" s="24">
+        <v>-0.25298112634703263</v>
+      </c>
+      <c r="O7" s="24" t="str">
         <f>Data!D11</f>
-        <v>-3.9610573860254197E-2</v>
+        <v>-</v>
       </c>
       <c r="P7" s="24">
         <f>Data!E11</f>
-        <v>-0.23221079556337351</v>
+        <v>-0.27182136942362772</v>
       </c>
       <c r="Q7" s="24">
         <f>Data!F11</f>
@@ -2545,39 +2552,39 @@
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="28"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25" t="s">
+      <c r="N9" s="30"/>
+      <c r="O9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25" t="s">
+      <c r="R9" s="30"/>
+      <c r="S9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="25"/>
+      <c r="T9" s="30"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -2779,21 +2786,21 @@
       <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="17" t="str">
         <f>Data!J4</f>
+        <v>-</v>
+      </c>
+      <c r="C13" s="17">
+        <f>Data!K4</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="C13" s="17" t="str">
-        <f>Data!K4</f>
-        <v>-</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="D13" s="17" t="str">
         <f>Data!L4</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="17">
+        <f>Data!M4</f>
         <v>-2.1289564733259821E-2</v>
-      </c>
-      <c r="E13" s="17" t="str">
-        <f>Data!M4</f>
-        <v>-</v>
       </c>
       <c r="F13" s="17" t="str">
         <f>Data!N4</f>
@@ -2814,21 +2821,21 @@
       <c r="L13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="18" t="str">
         <f>Data!J10</f>
+        <v>-</v>
+      </c>
+      <c r="N13" s="18">
+        <f>Data!K10</f>
         <v>-4.2433227678745238E-2</v>
       </c>
-      <c r="N13" s="18" t="str">
-        <f>Data!K10</f>
-        <v>-</v>
-      </c>
-      <c r="O13" s="18">
+      <c r="O13" s="18" t="str">
         <f>Data!L10</f>
+        <v>-</v>
+      </c>
+      <c r="P13" s="18">
+        <f>Data!M10</f>
         <v>-2.1289564733259821E-2</v>
-      </c>
-      <c r="P13" s="18" t="str">
-        <f>Data!M10</f>
-        <v>-</v>
       </c>
       <c r="Q13" s="18" t="str">
         <f>Data!N10</f>
@@ -2851,21 +2858,21 @@
       <c r="A14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="22" t="str">
         <f>Data!J5</f>
-        <v>-4.2433227678745238E-2</v>
+        <v>-</v>
       </c>
       <c r="C14" s="22">
         <f>Data!K5</f>
-        <v>-0.13166149471884389</v>
-      </c>
-      <c r="D14" s="22">
+        <v>-0.17409472239758919</v>
+      </c>
+      <c r="D14" s="22" t="str">
         <f>Data!L5</f>
-        <v>-2.1289564733259821E-2</v>
+        <v>-</v>
       </c>
       <c r="E14" s="22">
         <f>Data!M5</f>
-        <v>-0.18976173824355119</v>
+        <v>-0.21105130297681099</v>
       </c>
       <c r="F14" s="22">
         <f>Data!N5</f>
@@ -2886,21 +2893,21 @@
       <c r="L14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="23" t="str">
         <f>Data!J11</f>
-        <v>-4.2433227678745238E-2</v>
+        <v>-</v>
       </c>
       <c r="N14" s="23">
         <f>Data!K11</f>
-        <v>-0.13166149471884389</v>
-      </c>
-      <c r="O14" s="23">
+        <v>-0.17409472239758919</v>
+      </c>
+      <c r="O14" s="23" t="str">
         <f>Data!L11</f>
-        <v>-2.1289564733259821E-2</v>
+        <v>-</v>
       </c>
       <c r="P14" s="23">
         <f>Data!M11</f>
-        <v>-0.18976173824355119</v>
+        <v>-0.21105130297681099</v>
       </c>
       <c r="Q14" s="23">
         <f>Data!N11</f>
@@ -2921,6 +2928,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="Q9:R9"/>
@@ -2933,15 +2946,9 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:I7 B11:I14 M4:T7 M11:T14">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -2949,6 +2956,16 @@
         <color rgb="FF00B050"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="5"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2961,7 +2978,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2971,22 +2988,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="30"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
@@ -3230,7 +3247,7 @@
         <f>Data!E19</f>
         <v>-0.96146690180264982</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="32">
         <f>Data!D27</f>
         <v>4.0755451527550859</v>
       </c>
@@ -3247,7 +3264,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:I8">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -3255,6 +3272,16 @@
         <color rgb="FF00B050"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="5"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/results/sensitivity.xlsx
+++ b/results/sensitivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48571B3D-D82E-49B5-87FD-BFDD7FB81B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68C5FA-6CCD-4022-B00C-F9BF72B734BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -346,14 +346,14 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,16 +456,16 @@
             <v>-</v>
           </cell>
           <cell r="F2">
-            <v>2.4364152021797831E-2</v>
+            <v>7.8121720047058599E-2</v>
           </cell>
           <cell r="G2">
-            <v>-1.4596610213954709E-2</v>
+            <v>-4.6802872340905209E-2</v>
           </cell>
           <cell r="H2">
-            <v>5.6712978793432997E-2</v>
+            <v>9.5031121388233442E-2</v>
           </cell>
           <cell r="I2">
-            <v>-3.3976854387519802E-2</v>
+            <v>-5.6933327121668091E-2</v>
           </cell>
           <cell r="J2" t="str">
             <v>-</v>
@@ -480,16 +480,16 @@
             <v>-</v>
           </cell>
           <cell r="N2">
-            <v>1.7881708115692459E-2</v>
+            <v>7.1487121221930572E-2</v>
           </cell>
           <cell r="O2">
-            <v>-1.0712965634550131E-2</v>
+            <v>-4.2828071457635702E-2</v>
           </cell>
           <cell r="P2">
-            <v>0.1183054269638939</v>
+            <v>9.2491149133473768E-2</v>
           </cell>
           <cell r="Q2">
-            <v>-7.0877008239092168E-2</v>
+            <v>-5.5411624871418472E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -499,50 +499,50 @@
           <cell r="B3" t="str">
             <v>-</v>
           </cell>
-          <cell r="C3" t="str">
-            <v>-</v>
+          <cell r="C3">
+            <v>-0.16281582830419861</v>
           </cell>
           <cell r="D3" t="str">
             <v>-</v>
           </cell>
-          <cell r="E3" t="str">
-            <v>-</v>
+          <cell r="E3">
+            <v>-0.23318989143372959</v>
           </cell>
           <cell r="F3" t="str">
             <v>-</v>
           </cell>
-          <cell r="G3" t="str">
-            <v>-</v>
+          <cell r="G3">
+            <v>-0.22804674090778371</v>
           </cell>
           <cell r="H3" t="str">
             <v>-</v>
           </cell>
-          <cell r="I3" t="str">
-            <v>-</v>
+          <cell r="I3">
+            <v>-0.27740732672481161</v>
           </cell>
           <cell r="J3" t="str">
             <v>-</v>
           </cell>
-          <cell r="K3" t="str">
-            <v>-</v>
+          <cell r="K3">
+            <v>-0.1168266730077212</v>
           </cell>
           <cell r="L3" t="str">
             <v>-</v>
           </cell>
-          <cell r="M3" t="str">
-            <v>-</v>
+          <cell r="M3">
+            <v>-0.19110349821413039</v>
           </cell>
           <cell r="N3" t="str">
             <v>-</v>
           </cell>
-          <cell r="O3" t="str">
-            <v>-</v>
+          <cell r="O3">
+            <v>-0.17920591565584421</v>
           </cell>
           <cell r="P3" t="str">
             <v>-</v>
           </cell>
-          <cell r="Q3" t="str">
-            <v>-</v>
+          <cell r="Q3">
+            <v>-0.23185940050752171</v>
           </cell>
         </row>
         <row r="4">
@@ -553,13 +553,13 @@
             <v>-</v>
           </cell>
           <cell r="C4">
-            <v>-0.1126760563380282</v>
+            <v>-7.594823688727774E-2</v>
           </cell>
           <cell r="D4" t="str">
             <v>-</v>
           </cell>
           <cell r="E4">
-            <v>-4.7648638430179781E-2</v>
+            <v>-3.9302500112370783E-2</v>
           </cell>
           <cell r="F4" t="str">
             <v>-</v>
@@ -577,13 +577,13 @@
             <v>-</v>
           </cell>
           <cell r="K4">
-            <v>-5.9405940594059327E-2</v>
+            <v>-4.4345610419112662E-2</v>
           </cell>
           <cell r="L4" t="str">
             <v>-</v>
           </cell>
           <cell r="M4">
-            <v>-1.4006740003480339E-2</v>
+            <v>-2.102005311177816E-2</v>
           </cell>
           <cell r="N4" t="str">
             <v>-</v>
@@ -606,49 +606,49 @@
             <v>-</v>
           </cell>
           <cell r="C5">
-            <v>-0.1126760563380282</v>
+            <v>-0.2387640651914763</v>
           </cell>
           <cell r="D5" t="str">
             <v>-</v>
           </cell>
           <cell r="E5">
-            <v>-4.7648638430179781E-2</v>
+            <v>-0.27249239154610039</v>
           </cell>
           <cell r="F5">
-            <v>2.4364152021797831E-2</v>
+            <v>7.8121720047058599E-2</v>
           </cell>
           <cell r="G5">
-            <v>-1.4596610213954709E-2</v>
+            <v>-0.2748496132486889</v>
           </cell>
           <cell r="H5">
-            <v>5.6712978793432997E-2</v>
+            <v>9.5031121388233442E-2</v>
           </cell>
           <cell r="I5">
-            <v>-3.3976854387519802E-2</v>
+            <v>-0.33434065384647971</v>
           </cell>
           <cell r="J5" t="str">
             <v>-</v>
           </cell>
           <cell r="K5">
-            <v>-5.9405940594059327E-2</v>
+            <v>-0.16117228342683379</v>
           </cell>
           <cell r="L5" t="str">
             <v>-</v>
           </cell>
           <cell r="M5">
-            <v>-1.4006740003480339E-2</v>
+            <v>-0.21212355132590849</v>
           </cell>
           <cell r="N5">
-            <v>1.7881708115692459E-2</v>
+            <v>7.1487121221930572E-2</v>
           </cell>
           <cell r="O5">
-            <v>-1.0712965634550131E-2</v>
+            <v>-0.22203398711347991</v>
           </cell>
           <cell r="P5">
-            <v>0.1183054269638939</v>
+            <v>9.2491149133473768E-2</v>
           </cell>
           <cell r="Q5">
-            <v>-7.0877008239092168E-2</v>
+            <v>-0.28727102537894023</v>
           </cell>
         </row>
       </sheetData>
@@ -735,16 +735,16 @@
             <v>-</v>
           </cell>
           <cell r="F2">
-            <v>0.14226190438572481</v>
+            <v>0.13724284182476101</v>
           </cell>
           <cell r="G2">
-            <v>-8.5229379818165224E-2</v>
+            <v>-8.2222449809836354E-2</v>
           </cell>
           <cell r="H2">
-            <v>0.1004317043569435</v>
+            <v>0.12585142938195501</v>
           </cell>
           <cell r="I2">
-            <v>-6.0168826738147808E-2</v>
+            <v>-7.5397832763231323E-2</v>
           </cell>
           <cell r="J2" t="str">
             <v>-</v>
@@ -759,16 +759,16 @@
             <v>-</v>
           </cell>
           <cell r="N2">
-            <v>9.2394924456661504E-2</v>
+            <v>0.11942030251849101</v>
           </cell>
           <cell r="O2">
-            <v>-5.5353976482952733E-2</v>
+            <v>-7.1544932322514979E-2</v>
           </cell>
           <cell r="P2">
-            <v>0.12242242166263451</v>
+            <v>0.12816247896868069</v>
           </cell>
           <cell r="Q2">
-            <v>-7.3343507660728821E-2</v>
+            <v>-7.6782387003919511E-2</v>
           </cell>
         </row>
         <row r="3">
@@ -778,50 +778,50 @@
           <cell r="B3" t="str">
             <v>-</v>
           </cell>
-          <cell r="C3" t="str">
-            <v>-</v>
+          <cell r="C3">
+            <v>-4.8935868434811132E-2</v>
           </cell>
           <cell r="D3" t="str">
             <v>-</v>
           </cell>
-          <cell r="E3" t="str">
-            <v>-</v>
+          <cell r="E3">
+            <v>-9.6175819000391349E-2</v>
           </cell>
           <cell r="F3" t="str">
             <v>-</v>
           </cell>
-          <cell r="G3" t="str">
-            <v>-</v>
+          <cell r="G3">
+            <v>-0.20386811074854561</v>
           </cell>
           <cell r="H3" t="str">
             <v>-</v>
           </cell>
-          <cell r="I3" t="str">
-            <v>-</v>
+          <cell r="I3">
+            <v>-0.18694667643113569</v>
           </cell>
           <cell r="J3" t="str">
             <v>-</v>
           </cell>
-          <cell r="K3" t="str">
-            <v>-</v>
+          <cell r="K3">
+            <v>-3.2648317363928078E-2</v>
           </cell>
           <cell r="L3" t="str">
             <v>-</v>
           </cell>
-          <cell r="M3" t="str">
-            <v>-</v>
+          <cell r="M3">
+            <v>-7.6120660998827583E-2</v>
           </cell>
           <cell r="N3" t="str">
             <v>-</v>
           </cell>
-          <cell r="O3" t="str">
-            <v>-</v>
+          <cell r="O3">
+            <v>-0.16400347049535391</v>
           </cell>
           <cell r="P3" t="str">
             <v>-</v>
           </cell>
-          <cell r="Q3" t="str">
-            <v>-</v>
+          <cell r="Q3">
+            <v>-0.17600936268685749</v>
           </cell>
         </row>
         <row r="4">
@@ -832,13 +832,13 @@
             <v>-</v>
           </cell>
           <cell r="C4">
-            <v>-0.1126760563380282</v>
+            <v>-9.9583213565278036E-2</v>
           </cell>
           <cell r="D4" t="str">
             <v>-</v>
           </cell>
           <cell r="E4">
-            <v>-7.6806275956646783E-2</v>
+            <v>-6.5343570458780809E-2</v>
           </cell>
           <cell r="F4" t="str">
             <v>-</v>
@@ -856,13 +856,13 @@
             <v>-</v>
           </cell>
           <cell r="K4">
-            <v>-5.9405940594059431E-2</v>
+            <v>-5.4084333654849992E-2</v>
           </cell>
           <cell r="L4" t="str">
             <v>-</v>
           </cell>
           <cell r="M4">
-            <v>-3.2466431066096688E-2</v>
+            <v>-3.3219162591998232E-2</v>
           </cell>
           <cell r="N4" t="str">
             <v>-</v>
@@ -885,49 +885,49 @@
             <v>-</v>
           </cell>
           <cell r="C5">
-            <v>-0.1126760563380282</v>
+            <v>-0.1485190820000892</v>
           </cell>
           <cell r="D5" t="str">
             <v>-</v>
           </cell>
           <cell r="E5">
-            <v>-7.6806275956646783E-2</v>
+            <v>-0.16151938945917221</v>
           </cell>
           <cell r="F5">
-            <v>0.14226190438572481</v>
+            <v>0.13724284182476101</v>
           </cell>
           <cell r="G5">
-            <v>-8.5229379818165224E-2</v>
+            <v>-0.28609056055838189</v>
           </cell>
           <cell r="H5">
-            <v>0.1004317043569435</v>
+            <v>0.12585142938195501</v>
           </cell>
           <cell r="I5">
-            <v>-6.0168826738147808E-2</v>
+            <v>-0.26234450919436708</v>
           </cell>
           <cell r="J5" t="str">
             <v>-</v>
           </cell>
           <cell r="K5">
-            <v>-5.9405940594059431E-2</v>
+            <v>-8.673265101877807E-2</v>
           </cell>
           <cell r="L5" t="str">
             <v>-</v>
           </cell>
           <cell r="M5">
-            <v>-3.2466431066096688E-2</v>
+            <v>-0.10933982359082579</v>
           </cell>
           <cell r="N5">
-            <v>9.2394924456661504E-2</v>
+            <v>0.11942030251849101</v>
           </cell>
           <cell r="O5">
-            <v>-5.5353976482952733E-2</v>
+            <v>-0.2355484028178689</v>
           </cell>
           <cell r="P5">
-            <v>0.12242242166263451</v>
+            <v>0.12816247896868069</v>
           </cell>
           <cell r="Q5">
-            <v>-7.3343507660728821E-2</v>
+            <v>-0.252791749690777</v>
           </cell>
         </row>
       </sheetData>
@@ -1023,10 +1023,10 @@
             <v>-</v>
           </cell>
           <cell r="D5">
-            <v>0.17913606534576129</v>
+            <v>0.17913606534576179</v>
           </cell>
           <cell r="E5">
-            <v>-0.12583355962028989</v>
+            <v>-0.13440436531409841</v>
           </cell>
         </row>
         <row r="6">
@@ -1057,10 +1057,10 @@
             <v>-0.39428571428571418</v>
           </cell>
           <cell r="D7">
-            <v>3.2636681352411552</v>
+            <v>3.2636681352411561</v>
           </cell>
           <cell r="E7">
-            <v>-0.9349487160200034</v>
+            <v>-0.94351952171381193</v>
           </cell>
         </row>
       </sheetData>
@@ -1520,19 +1520,19 @@
       </c>
       <c r="F2">
         <f>[1]case1_cut_off!F2</f>
-        <v>2.4364152021797831E-2</v>
+        <v>7.8121720047058599E-2</v>
       </c>
       <c r="G2">
         <f>[1]case1_cut_off!G2</f>
-        <v>-1.4596610213954709E-2</v>
+        <v>-4.6802872340905209E-2</v>
       </c>
       <c r="H2">
         <f>[1]case1_cut_off!H2</f>
-        <v>5.6712978793432997E-2</v>
+        <v>9.5031121388233442E-2</v>
       </c>
       <c r="I2">
         <f>[1]case1_cut_off!I2</f>
-        <v>-3.3976854387519802E-2</v>
+        <v>-5.6933327121668091E-2</v>
       </c>
       <c r="J2" t="str">
         <f>[1]case1_cut_off!J2</f>
@@ -1552,19 +1552,19 @@
       </c>
       <c r="N2">
         <f>[1]case1_cut_off!N2</f>
-        <v>1.7881708115692459E-2</v>
+        <v>7.1487121221930572E-2</v>
       </c>
       <c r="O2">
         <f>[1]case1_cut_off!O2</f>
-        <v>-1.0712965634550131E-2</v>
+        <v>-4.2828071457635702E-2</v>
       </c>
       <c r="P2">
         <f>[1]case1_cut_off!P2</f>
-        <v>0.1183054269638939</v>
+        <v>9.2491149133473768E-2</v>
       </c>
       <c r="Q2">
         <f>[1]case1_cut_off!Q2</f>
-        <v>-7.0877008239092168E-2</v>
+        <v>-5.5411624871418472E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1576,65 +1576,65 @@
         <f>[1]case1_cut_off!B3</f>
         <v>-</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f>[1]case1_cut_off!C3</f>
-        <v>-</v>
+        <v>-0.16281582830419861</v>
       </c>
       <c r="D3" t="str">
         <f>[1]case1_cut_off!D3</f>
         <v>-</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3">
         <f>[1]case1_cut_off!E3</f>
-        <v>-</v>
+        <v>-0.23318989143372959</v>
       </c>
       <c r="F3" t="str">
         <f>[1]case1_cut_off!F3</f>
         <v>-</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3">
         <f>[1]case1_cut_off!G3</f>
-        <v>-</v>
+        <v>-0.22804674090778371</v>
       </c>
       <c r="H3" t="str">
         <f>[1]case1_cut_off!H3</f>
         <v>-</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3">
         <f>[1]case1_cut_off!I3</f>
-        <v>-</v>
+        <v>-0.27740732672481161</v>
       </c>
       <c r="J3" t="str">
         <f>[1]case1_cut_off!J3</f>
         <v>-</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3">
         <f>[1]case1_cut_off!K3</f>
-        <v>-</v>
+        <v>-0.1168266730077212</v>
       </c>
       <c r="L3" t="str">
         <f>[1]case1_cut_off!L3</f>
         <v>-</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3">
         <f>[1]case1_cut_off!M3</f>
-        <v>-</v>
+        <v>-0.19110349821413039</v>
       </c>
       <c r="N3" t="str">
         <f>[1]case1_cut_off!N3</f>
         <v>-</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3">
         <f>[1]case1_cut_off!O3</f>
-        <v>-</v>
+        <v>-0.17920591565584421</v>
       </c>
       <c r="P3" t="str">
         <f>[1]case1_cut_off!P3</f>
         <v>-</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="Q3">
         <f>[1]case1_cut_off!Q3</f>
-        <v>-</v>
+        <v>-0.23185940050752171</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C4">
         <f>[1]case1_cut_off!C4</f>
-        <v>-0.1126760563380282</v>
+        <v>-7.594823688727774E-2</v>
       </c>
       <c r="D4" t="str">
         <f>[1]case1_cut_off!D4</f>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E4">
         <f>[1]case1_cut_off!E4</f>
-        <v>-4.7648638430179781E-2</v>
+        <v>-3.9302500112370783E-2</v>
       </c>
       <c r="F4" t="str">
         <f>[1]case1_cut_off!F4</f>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="K4">
         <f>[1]case1_cut_off!K4</f>
-        <v>-5.9405940594059327E-2</v>
+        <v>-4.4345610419112662E-2</v>
       </c>
       <c r="L4" t="str">
         <f>[1]case1_cut_off!L4</f>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="M4">
         <f>[1]case1_cut_off!M4</f>
-        <v>-1.4006740003480339E-2</v>
+        <v>-2.102005311177816E-2</v>
       </c>
       <c r="N4" t="str">
         <f>[1]case1_cut_off!N4</f>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C5">
         <f>[1]case1_cut_off!C5</f>
-        <v>-0.1126760563380282</v>
+        <v>-0.2387640651914763</v>
       </c>
       <c r="D5" t="str">
         <f>[1]case1_cut_off!D5</f>
@@ -1726,23 +1726,23 @@
       </c>
       <c r="E5">
         <f>[1]case1_cut_off!E5</f>
-        <v>-4.7648638430179781E-2</v>
+        <v>-0.27249239154610039</v>
       </c>
       <c r="F5">
         <f>[1]case1_cut_off!F5</f>
-        <v>2.4364152021797831E-2</v>
+        <v>7.8121720047058599E-2</v>
       </c>
       <c r="G5">
         <f>[1]case1_cut_off!G5</f>
-        <v>-1.4596610213954709E-2</v>
+        <v>-0.2748496132486889</v>
       </c>
       <c r="H5">
         <f>[1]case1_cut_off!H5</f>
-        <v>5.6712978793432997E-2</v>
+        <v>9.5031121388233442E-2</v>
       </c>
       <c r="I5">
         <f>[1]case1_cut_off!I5</f>
-        <v>-3.3976854387519802E-2</v>
+        <v>-0.33434065384647971</v>
       </c>
       <c r="J5" t="str">
         <f>[1]case1_cut_off!J5</f>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K5">
         <f>[1]case1_cut_off!K5</f>
-        <v>-5.9405940594059327E-2</v>
+        <v>-0.16117228342683379</v>
       </c>
       <c r="L5" t="str">
         <f>[1]case1_cut_off!L5</f>
@@ -1758,23 +1758,23 @@
       </c>
       <c r="M5">
         <f>[1]case1_cut_off!M5</f>
-        <v>-1.4006740003480339E-2</v>
+        <v>-0.21212355132590849</v>
       </c>
       <c r="N5">
         <f>[1]case1_cut_off!N5</f>
-        <v>1.7881708115692459E-2</v>
+        <v>7.1487121221930572E-2</v>
       </c>
       <c r="O5">
         <f>[1]case1_cut_off!O5</f>
-        <v>-1.0712965634550131E-2</v>
+        <v>-0.22203398711347991</v>
       </c>
       <c r="P5">
         <f>[1]case1_cut_off!P5</f>
-        <v>0.1183054269638939</v>
+        <v>9.2491149133473768E-2</v>
       </c>
       <c r="Q5">
         <f>[1]case1_cut_off!Q5</f>
-        <v>-7.0877008239092168E-2</v>
+        <v>-0.28727102537894023</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1873,19 +1873,19 @@
       </c>
       <c r="F8">
         <f>[2]case1_consq!F2</f>
-        <v>0.14226190438572481</v>
+        <v>0.13724284182476101</v>
       </c>
       <c r="G8">
         <f>[2]case1_consq!G2</f>
-        <v>-8.5229379818165224E-2</v>
+        <v>-8.2222449809836354E-2</v>
       </c>
       <c r="H8">
         <f>[2]case1_consq!H2</f>
-        <v>0.1004317043569435</v>
+        <v>0.12585142938195501</v>
       </c>
       <c r="I8">
         <f>[2]case1_consq!I2</f>
-        <v>-6.0168826738147808E-2</v>
+        <v>-7.5397832763231323E-2</v>
       </c>
       <c r="J8" t="str">
         <f>[2]case1_consq!J2</f>
@@ -1905,19 +1905,19 @@
       </c>
       <c r="N8">
         <f>[2]case1_consq!N2</f>
-        <v>9.2394924456661504E-2</v>
+        <v>0.11942030251849101</v>
       </c>
       <c r="O8">
         <f>[2]case1_consq!O2</f>
-        <v>-5.5353976482952733E-2</v>
+        <v>-7.1544932322514979E-2</v>
       </c>
       <c r="P8">
         <f>[2]case1_consq!P2</f>
-        <v>0.12242242166263451</v>
+        <v>0.12816247896868069</v>
       </c>
       <c r="Q8">
         <f>[2]case1_consq!Q2</f>
-        <v>-7.3343507660728821E-2</v>
+        <v>-7.6782387003919511E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1929,65 +1929,65 @@
         <f>[2]case1_consq!B3</f>
         <v>-</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <f>[2]case1_consq!C3</f>
-        <v>-</v>
+        <v>-4.8935868434811132E-2</v>
       </c>
       <c r="D9" t="str">
         <f>[2]case1_consq!D3</f>
         <v>-</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9">
         <f>[2]case1_consq!E3</f>
-        <v>-</v>
+        <v>-9.6175819000391349E-2</v>
       </c>
       <c r="F9" t="str">
         <f>[2]case1_consq!F3</f>
         <v>-</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>[2]case1_consq!G3</f>
-        <v>-</v>
+        <v>-0.20386811074854561</v>
       </c>
       <c r="H9" t="str">
         <f>[2]case1_consq!H3</f>
         <v>-</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9">
         <f>[2]case1_consq!I3</f>
-        <v>-</v>
+        <v>-0.18694667643113569</v>
       </c>
       <c r="J9" t="str">
         <f>[2]case1_consq!J3</f>
         <v>-</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9">
         <f>[2]case1_consq!K3</f>
-        <v>-</v>
+        <v>-3.2648317363928078E-2</v>
       </c>
       <c r="L9" t="str">
         <f>[2]case1_consq!L3</f>
         <v>-</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9">
         <f>[2]case1_consq!M3</f>
-        <v>-</v>
+        <v>-7.6120660998827583E-2</v>
       </c>
       <c r="N9" t="str">
         <f>[2]case1_consq!N3</f>
         <v>-</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O9">
         <f>[2]case1_consq!O3</f>
-        <v>-</v>
+        <v>-0.16400347049535391</v>
       </c>
       <c r="P9" t="str">
         <f>[2]case1_consq!P3</f>
         <v>-</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="Q9">
         <f>[2]case1_consq!Q3</f>
-        <v>-</v>
+        <v>-0.17600936268685749</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C10">
         <f>[2]case1_consq!C4</f>
-        <v>-0.1126760563380282</v>
+        <v>-9.9583213565278036E-2</v>
       </c>
       <c r="D10" t="str">
         <f>[2]case1_consq!D4</f>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E10">
         <f>[2]case1_consq!E4</f>
-        <v>-7.6806275956646783E-2</v>
+        <v>-6.5343570458780809E-2</v>
       </c>
       <c r="F10" t="str">
         <f>[2]case1_consq!F4</f>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="K10">
         <f>[2]case1_consq!K4</f>
-        <v>-5.9405940594059431E-2</v>
+        <v>-5.4084333654849992E-2</v>
       </c>
       <c r="L10" t="str">
         <f>[2]case1_consq!L4</f>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="M10">
         <f>[2]case1_consq!M4</f>
-        <v>-3.2466431066096688E-2</v>
+        <v>-3.3219162591998232E-2</v>
       </c>
       <c r="N10" t="str">
         <f>[2]case1_consq!N4</f>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C11">
         <f>[2]case1_consq!C5</f>
-        <v>-0.1126760563380282</v>
+        <v>-0.1485190820000892</v>
       </c>
       <c r="D11" t="str">
         <f>[2]case1_consq!D5</f>
@@ -2079,23 +2079,23 @@
       </c>
       <c r="E11">
         <f>[2]case1_consq!E5</f>
-        <v>-7.6806275956646783E-2</v>
+        <v>-0.16151938945917221</v>
       </c>
       <c r="F11">
         <f>[2]case1_consq!F5</f>
-        <v>0.14226190438572481</v>
+        <v>0.13724284182476101</v>
       </c>
       <c r="G11">
         <f>[2]case1_consq!G5</f>
-        <v>-8.5229379818165224E-2</v>
+        <v>-0.28609056055838189</v>
       </c>
       <c r="H11">
         <f>[2]case1_consq!H5</f>
-        <v>0.1004317043569435</v>
+        <v>0.12585142938195501</v>
       </c>
       <c r="I11">
         <f>[2]case1_consq!I5</f>
-        <v>-6.0168826738147808E-2</v>
+        <v>-0.26234450919436708</v>
       </c>
       <c r="J11" t="str">
         <f>[2]case1_consq!J5</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="K11">
         <f>[2]case1_consq!K5</f>
-        <v>-5.9405940594059431E-2</v>
+        <v>-8.673265101877807E-2</v>
       </c>
       <c r="L11" t="str">
         <f>[2]case1_consq!L5</f>
@@ -2111,23 +2111,23 @@
       </c>
       <c r="M11">
         <f>[2]case1_consq!M5</f>
-        <v>-3.2466431066096688E-2</v>
+        <v>-0.10933982359082579</v>
       </c>
       <c r="N11">
         <f>[2]case1_consq!N5</f>
-        <v>9.2394924456661504E-2</v>
+        <v>0.11942030251849101</v>
       </c>
       <c r="O11">
         <f>[2]case1_consq!O5</f>
-        <v>-5.5353976482952733E-2</v>
+        <v>-0.2355484028178689</v>
       </c>
       <c r="P11">
         <f>[2]case1_consq!P5</f>
-        <v>0.12242242166263451</v>
+        <v>0.12816247896868069</v>
       </c>
       <c r="Q11">
         <f>[2]case1_consq!Q5</f>
-        <v>-7.3343507660728821E-2</v>
+        <v>-0.252791749690777</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2233,11 +2233,11 @@
       </c>
       <c r="D17">
         <f>[3]case2_cut_off!D5</f>
-        <v>0.17913606534576129</v>
+        <v>0.17913606534576179</v>
       </c>
       <c r="E17">
         <f>[3]case2_cut_off!E5</f>
-        <v>-0.12583355962028989</v>
+        <v>-0.13440436531409841</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2277,11 +2277,11 @@
       </c>
       <c r="D19">
         <f>[3]case2_cut_off!D7</f>
-        <v>3.2636681352411552</v>
+        <v>3.2636681352411561</v>
       </c>
       <c r="E19">
         <f>[3]case2_cut_off!E7</f>
-        <v>-0.9349487160200034</v>
+        <v>-0.94351952171381193</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2447,71 +2447,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942EC9EF-88F1-453D-B701-3C676B19E3B2}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="L1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2587,19 +2587,19 @@
       </c>
       <c r="F4" s="22">
         <f>Data!F2</f>
-        <v>2.4364152021797831E-2</v>
+        <v>7.8121720047058599E-2</v>
       </c>
       <c r="G4" s="22">
         <f>Data!G2</f>
-        <v>-1.4596610213954709E-2</v>
+        <v>-4.6802872340905209E-2</v>
       </c>
       <c r="H4" s="22">
         <f>Data!H2</f>
-        <v>5.6712978793432997E-2</v>
+        <v>9.5031121388233442E-2</v>
       </c>
       <c r="I4" s="22">
         <f>Data!I2</f>
-        <v>-3.3976854387519802E-2</v>
+        <v>-5.6933327121668091E-2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
@@ -2622,19 +2622,19 @@
       </c>
       <c r="Q4" s="14">
         <f>Data!F8</f>
-        <v>0.14226190438572481</v>
+        <v>0.13724284182476101</v>
       </c>
       <c r="R4" s="14">
         <f>Data!G8</f>
-        <v>-8.5229379818165224E-2</v>
+        <v>-8.2222449809836354E-2</v>
       </c>
       <c r="S4" s="14">
         <f>Data!H8</f>
-        <v>0.1004317043569435</v>
+        <v>0.12585142938195501</v>
       </c>
       <c r="T4" s="14">
         <f>Data!I8</f>
-        <v>-6.0168826738147808E-2</v>
+        <v>-7.5397832763231323E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2645,33 +2645,33 @@
         <f>Data!B3</f>
         <v>-</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="23">
         <f>Data!C3</f>
-        <v>-</v>
+        <v>-0.16281582830419861</v>
       </c>
       <c r="D5" s="23" t="str">
         <f>Data!D3</f>
         <v>-</v>
       </c>
-      <c r="E5" s="23" t="str">
+      <c r="E5" s="23">
         <f>Data!E3</f>
-        <v>-</v>
+        <v>-0.23318989143372959</v>
       </c>
       <c r="F5" s="23" t="str">
         <f>Data!F3</f>
         <v>-</v>
       </c>
-      <c r="G5" s="23" t="str">
+      <c r="G5" s="23">
         <f>Data!G3</f>
-        <v>-</v>
+        <v>-0.22804674090778371</v>
       </c>
       <c r="H5" s="23" t="str">
         <f>Data!H3</f>
         <v>-</v>
       </c>
-      <c r="I5" s="23" t="str">
+      <c r="I5" s="23">
         <f>Data!I3</f>
-        <v>-</v>
+        <v>-0.27740732672481161</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>3</v>
@@ -2680,33 +2680,33 @@
         <f>Data!B9</f>
         <v>-</v>
       </c>
-      <c r="N5" s="15" t="str">
+      <c r="N5" s="15">
         <f>Data!C9</f>
-        <v>-</v>
+        <v>-4.8935868434811132E-2</v>
       </c>
       <c r="O5" s="15" t="str">
         <f>Data!D9</f>
         <v>-</v>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" s="15">
         <f>Data!E9</f>
-        <v>-</v>
+        <v>-9.6175819000391349E-2</v>
       </c>
       <c r="Q5" s="15" t="str">
         <f>Data!F9</f>
         <v>-</v>
       </c>
-      <c r="R5" s="15" t="str">
+      <c r="R5" s="15">
         <f>Data!G9</f>
-        <v>-</v>
+        <v>-0.20386811074854561</v>
       </c>
       <c r="S5" s="15" t="str">
         <f>Data!H9</f>
         <v>-</v>
       </c>
-      <c r="T5" s="15" t="str">
+      <c r="T5" s="15">
         <f>Data!I9</f>
-        <v>-</v>
+        <v>-0.18694667643113569</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C6" s="23">
         <f>Data!C4</f>
-        <v>-0.1126760563380282</v>
+        <v>-7.594823688727774E-2</v>
       </c>
       <c r="D6" s="23" t="str">
         <f>Data!D4</f>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="E6" s="23">
         <f>Data!E4</f>
-        <v>-4.7648638430179781E-2</v>
+        <v>-3.9302500112370783E-2</v>
       </c>
       <c r="F6" s="23" t="str">
         <f>Data!F4</f>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="N6" s="15">
         <f>Data!C10</f>
-        <v>-0.1126760563380282</v>
+        <v>-9.9583213565278036E-2</v>
       </c>
       <c r="O6" s="15" t="str">
         <f>Data!D10</f>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="P6" s="15">
         <f>Data!E10</f>
-        <v>-7.6806275956646783E-2</v>
+        <v>-6.5343570458780809E-2</v>
       </c>
       <c r="Q6" s="15" t="str">
         <f>Data!F10</f>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C7" s="24">
         <f>Data!C5</f>
-        <v>-0.1126760563380282</v>
+        <v>-0.2387640651914763</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>Data!D5</f>
@@ -2799,23 +2799,23 @@
       </c>
       <c r="E7" s="24">
         <f>Data!E5</f>
-        <v>-4.7648638430179781E-2</v>
+        <v>-0.27249239154610039</v>
       </c>
       <c r="F7" s="24">
         <f>Data!F5</f>
-        <v>2.4364152021797831E-2</v>
+        <v>7.8121720047058599E-2</v>
       </c>
       <c r="G7" s="24">
         <f>Data!G5</f>
-        <v>-1.4596610213954709E-2</v>
+        <v>-0.2748496132486889</v>
       </c>
       <c r="H7" s="24">
         <f>Data!H5</f>
-        <v>5.6712978793432997E-2</v>
+        <v>9.5031121388233442E-2</v>
       </c>
       <c r="I7" s="24">
         <f>Data!I5</f>
-        <v>-3.3976854387519802E-2</v>
+        <v>-0.33434065384647971</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="N7" s="21">
         <f>Data!C11</f>
-        <v>-0.1126760563380282</v>
+        <v>-0.1485190820000892</v>
       </c>
       <c r="O7" s="21" t="str">
         <f>Data!D11</f>
@@ -2834,61 +2834,61 @@
       </c>
       <c r="P7" s="21">
         <f>Data!E11</f>
-        <v>-7.6806275956646783E-2</v>
+        <v>-0.16151938945917221</v>
       </c>
       <c r="Q7" s="21">
         <f>Data!F11</f>
-        <v>0.14226190438572481</v>
+        <v>0.13724284182476101</v>
       </c>
       <c r="R7" s="21">
         <f>Data!G11</f>
-        <v>-8.5229379818165224E-2</v>
+        <v>-0.28609056055838189</v>
       </c>
       <c r="S7" s="21">
         <f>Data!H11</f>
-        <v>0.1004317043569435</v>
+        <v>0.12585142938195501</v>
       </c>
       <c r="T7" s="21">
         <f>Data!I11</f>
-        <v>-6.0168826738147808E-2</v>
+        <v>-0.26234450919436708</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="33"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31" t="s">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31" t="s">
+      <c r="R9" s="32"/>
+      <c r="S9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="31"/>
+      <c r="T9" s="32"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="F11" s="16">
         <f>Data!N2</f>
-        <v>1.7881708115692459E-2</v>
+        <v>7.1487121221930572E-2</v>
       </c>
       <c r="G11" s="16">
         <f>Data!O2</f>
-        <v>-1.0712965634550131E-2</v>
+        <v>-4.2828071457635702E-2</v>
       </c>
       <c r="H11" s="16">
         <f>Data!P2</f>
-        <v>0.1183054269638939</v>
+        <v>9.2491149133473768E-2</v>
       </c>
       <c r="I11" s="16">
         <f>Data!Q2</f>
-        <v>-7.0877008239092168E-2</v>
+        <v>-5.5411624871418472E-2</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>2</v>
@@ -2999,19 +2999,19 @@
       </c>
       <c r="Q11" s="18">
         <f>Data!N8</f>
-        <v>9.2394924456661504E-2</v>
+        <v>0.11942030251849101</v>
       </c>
       <c r="R11" s="18">
         <f>Data!O8</f>
-        <v>-5.5353976482952733E-2</v>
+        <v>-7.1544932322514979E-2</v>
       </c>
       <c r="S11" s="18">
         <f>Data!P8</f>
-        <v>0.12242242166263451</v>
+        <v>0.12816247896868069</v>
       </c>
       <c r="T11" s="18">
         <f>Data!Q8</f>
-        <v>-7.3343507660728821E-2</v>
+        <v>-7.6782387003919511E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.2">
@@ -3022,33 +3022,33 @@
         <f>Data!J3</f>
         <v>-</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="17">
         <f>Data!K3</f>
-        <v>-</v>
+        <v>-0.1168266730077212</v>
       </c>
       <c r="D12" s="17" t="str">
         <f>Data!L3</f>
         <v>-</v>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="17">
         <f>Data!M3</f>
-        <v>-</v>
+        <v>-0.19110349821413039</v>
       </c>
       <c r="F12" s="17" t="str">
         <f>Data!N3</f>
         <v>-</v>
       </c>
-      <c r="G12" s="17" t="str">
+      <c r="G12" s="17">
         <f>Data!O3</f>
-        <v>-</v>
+        <v>-0.17920591565584421</v>
       </c>
       <c r="H12" s="17" t="str">
         <f>Data!P3</f>
         <v>-</v>
       </c>
-      <c r="I12" s="17" t="str">
+      <c r="I12" s="17">
         <f>Data!Q3</f>
-        <v>-</v>
+        <v>-0.23185940050752171</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>3</v>
@@ -3057,33 +3057,33 @@
         <f>Data!J9</f>
         <v>-</v>
       </c>
-      <c r="N12" s="18" t="str">
+      <c r="N12" s="18">
         <f>Data!K9</f>
-        <v>-</v>
+        <v>-3.2648317363928078E-2</v>
       </c>
       <c r="O12" s="18" t="str">
         <f>Data!L9</f>
         <v>-</v>
       </c>
-      <c r="P12" s="18" t="str">
+      <c r="P12" s="18">
         <f>Data!M9</f>
-        <v>-</v>
+        <v>-7.6120660998827583E-2</v>
       </c>
       <c r="Q12" s="18" t="str">
         <f>Data!N9</f>
         <v>-</v>
       </c>
-      <c r="R12" s="18" t="str">
+      <c r="R12" s="18">
         <f>Data!O9</f>
-        <v>-</v>
+        <v>-0.16400347049535391</v>
       </c>
       <c r="S12" s="18" t="str">
         <f>Data!P9</f>
         <v>-</v>
       </c>
-      <c r="T12" s="18" t="str">
+      <c r="T12" s="18">
         <f>Data!Q9</f>
-        <v>-</v>
+        <v>-0.17600936268685749</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.2">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C13" s="17">
         <f>Data!K4</f>
-        <v>-5.9405940594059327E-2</v>
+        <v>-4.4345610419112662E-2</v>
       </c>
       <c r="D13" s="17" t="str">
         <f>Data!L4</f>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="E13" s="17">
         <f>Data!M4</f>
-        <v>-1.4006740003480339E-2</v>
+        <v>-2.102005311177816E-2</v>
       </c>
       <c r="F13" s="17" t="str">
         <f>Data!N4</f>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="N13" s="18">
         <f>Data!K10</f>
-        <v>-5.9405940594059431E-2</v>
+        <v>-5.4084333654849992E-2</v>
       </c>
       <c r="O13" s="18" t="str">
         <f>Data!L10</f>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="P13" s="18">
         <f>Data!M10</f>
-        <v>-3.2466431066096688E-2</v>
+        <v>-3.3219162591998232E-2</v>
       </c>
       <c r="Q13" s="18" t="str">
         <f>Data!N10</f>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C14" s="19">
         <f>Data!K5</f>
-        <v>-5.9405940594059327E-2</v>
+        <v>-0.16117228342683379</v>
       </c>
       <c r="D14" s="19" t="str">
         <f>Data!L5</f>
@@ -3176,23 +3176,23 @@
       </c>
       <c r="E14" s="19">
         <f>Data!M5</f>
-        <v>-1.4006740003480339E-2</v>
+        <v>-0.21212355132590849</v>
       </c>
       <c r="F14" s="19">
         <f>Data!N5</f>
-        <v>1.7881708115692459E-2</v>
+        <v>7.1487121221930572E-2</v>
       </c>
       <c r="G14" s="19">
         <f>Data!O5</f>
-        <v>-1.0712965634550131E-2</v>
+        <v>-0.22203398711347991</v>
       </c>
       <c r="H14" s="19">
         <f>Data!P5</f>
-        <v>0.1183054269638939</v>
+        <v>9.2491149133473768E-2</v>
       </c>
       <c r="I14" s="19">
         <f>Data!Q5</f>
-        <v>-7.0877008239092168E-2</v>
+        <v>-0.28727102537894023</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>5</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="N14" s="20">
         <f>Data!K11</f>
-        <v>-5.9405940594059431E-2</v>
+        <v>-8.673265101877807E-2</v>
       </c>
       <c r="O14" s="20" t="str">
         <f>Data!L11</f>
@@ -3211,23 +3211,23 @@
       </c>
       <c r="P14" s="20">
         <f>Data!M11</f>
-        <v>-3.2466431066096688E-2</v>
+        <v>-0.10933982359082579</v>
       </c>
       <c r="Q14" s="20">
         <f>Data!N11</f>
-        <v>9.2394924456661504E-2</v>
+        <v>0.11942030251849101</v>
       </c>
       <c r="R14" s="20">
         <f>Data!O11</f>
-        <v>-5.5353976482952733E-2</v>
+        <v>-0.2355484028178689</v>
       </c>
       <c r="S14" s="20">
         <f>Data!P11</f>
-        <v>0.12242242166263451</v>
+        <v>0.12816247896868069</v>
       </c>
       <c r="T14" s="20">
         <f>Data!Q11</f>
-        <v>-7.3343507660728821E-2</v>
+        <v>-0.252791749690777</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.2">
@@ -3237,6 +3237,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="Q9:R9"/>
@@ -3253,8 +3255,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:I7 B11:I14 M4:T7 M11:T14">
     <cfRule type="colorScale" priority="1">
@@ -3286,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FC4D7E-5B0C-4888-A1D7-B7281011A3C3}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
@@ -3476,11 +3476,11 @@
       </c>
       <c r="F6" s="27">
         <f>Data!D17</f>
-        <v>0.17913606534576129</v>
+        <v>0.17913606534576179</v>
       </c>
       <c r="G6" s="27">
         <f>Data!E17</f>
-        <v>-0.12583355962028989</v>
+        <v>-0.13440436531409841</v>
       </c>
       <c r="H6" s="27">
         <f>Data!D25</f>
@@ -3550,11 +3550,11 @@
       </c>
       <c r="F8" s="29">
         <f>Data!D19</f>
-        <v>3.2636681352411552</v>
+        <v>3.2636681352411561</v>
       </c>
       <c r="G8" s="29">
         <f>Data!E19</f>
-        <v>-0.9349487160200034</v>
+        <v>-0.94351952171381193</v>
       </c>
       <c r="H8" s="30">
         <f>Data!D27</f>
@@ -3599,21 +3599,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>